--- a/TestFile.xlsx
+++ b/TestFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\IdeaProjects\app\src\main\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\IdeaProjects\app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="11270" windowWidth="14900" xWindow="0" yWindow="4200"/>
+    <workbookView activeTab="1" windowHeight="11270" windowWidth="14900" xWindow="0" yWindow="4200"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" r:id="rId1" sheetId="1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="242">
   <si>
     <t>Q\A</t>
   </si>
@@ -20654,7 +20654,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20683,6 +20683,9 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -20874,245 +20877,245 @@
       <c r="A25" t="s">
         <v>94</v>
       </c>
-      <c r="H25" t="n">
-        <v>482.0</v>
+      <c r="I25" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" t="n">
-        <v>248.0</v>
+        <v>66</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="D27" t="n">
-        <v>248.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" t="n">
-        <v>248.0</v>
+        <v>51</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" t="n">
-        <v>248.0</v>
+        <v>30</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B30" t="n">
-        <v>77.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="n">
-        <v>246.0</v>
+        <v>60</v>
+      </c>
+      <c r="F31" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" t="n">
-        <v>364.0</v>
+        <v>56</v>
+      </c>
+      <c r="F32" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.0</v>
+        <v>127</v>
+      </c>
+      <c r="C33" t="n">
+        <v>317.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="n">
-        <v>95.0</v>
+        <v>119</v>
+      </c>
+      <c r="G34" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" t="n">
-        <v>155.0</v>
+        <v>62</v>
+      </c>
+      <c r="C35" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" t="n">
-        <v>98.0</v>
+        <v>95</v>
+      </c>
+      <c r="H36" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" t="n">
-        <v>317.0</v>
+        <v>117</v>
+      </c>
+      <c r="B37" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" t="n">
-        <v>245.0</v>
+        <v>132</v>
+      </c>
+      <c r="H38" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C39" t="n">
-        <v>208.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" t="n">
-        <v>181.0</v>
+        <v>67</v>
+      </c>
+      <c r="C40" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B41" t="n">
-        <v>29.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" t="n">
-        <v>167.0</v>
+        <v>45</v>
+      </c>
+      <c r="B42" t="n">
+        <v>295.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C43" t="n">
-        <v>45.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="n">
-        <v>20.0</v>
+        <v>23</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" t="n">
-        <v>226.0</v>
+        <v>166</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="n">
-        <v>295.0</v>
+        <v>64</v>
+      </c>
+      <c r="G46" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" t="n">
-        <v>154.0</v>
+        <v>116</v>
+      </c>
+      <c r="D47" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0</v>
+        <v>142</v>
+      </c>
+      <c r="I48" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="n">
-        <v>127.0</v>
+        <v>102</v>
+      </c>
+      <c r="D50" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" t="n">
-        <v>210.0</v>
+        <v>164</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>142</v>
-      </c>
-      <c r="H52" t="n">
-        <v>325.0</v>
+        <v>46</v>
+      </c>
+      <c r="E52" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="F53" t="n">
-        <v>191.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D54" t="n">
-        <v>146.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -21120,151 +21123,151 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" t="n">
-        <v>178.0</v>
+        <v>42</v>
+      </c>
+      <c r="D56" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>165</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0</v>
+        <v>140</v>
+      </c>
+      <c r="J57" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" t="n">
-        <v>236.0</v>
+        <v>105</v>
+      </c>
+      <c r="C58" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>163</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.0</v>
+        <v>43</v>
+      </c>
+      <c r="I59" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" t="n">
-        <v>170.0</v>
+        <v>130</v>
+      </c>
+      <c r="H60" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" t="n">
-        <v>72.0</v>
+        <v>89</v>
+      </c>
+      <c r="E61" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C62" t="n">
-        <v>246.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" t="n">
-        <v>437.0</v>
+        <v>107</v>
+      </c>
+      <c r="J63" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>130</v>
-      </c>
-      <c r="H64" t="n">
-        <v>59.0</v>
+        <v>167</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" t="n">
-        <v>28.0</v>
+        <v>169</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" t="n">
-        <v>156.0</v>
+        <v>129</v>
+      </c>
+      <c r="D66" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>107</v>
-      </c>
-      <c r="I67" t="n">
-        <v>101.0</v>
+        <v>168</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.0</v>
+        <v>53</v>
+      </c>
+      <c r="D68" t="n">
+        <v>284.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" t="n">
+        <v>195</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" t="n">
-        <v>151.0</v>
+        <v>190</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" t="n">
+        <v>191</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" t="n">
-        <v>284.0</v>
+        <v>84</v>
+      </c>
+      <c r="B72" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>195</v>
-      </c>
-      <c r="E73" t="n">
+        <v>192</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E74" t="n">
         <v>0.0</v>
@@ -21272,23 +21275,23 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.0</v>
+        <v>69</v>
+      </c>
+      <c r="F75" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" t="n">
-        <v>37.0</v>
+        <v>193</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
@@ -21296,15 +21299,15 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" t="n">
-        <v>108.0</v>
+        <v>57</v>
+      </c>
+      <c r="C78" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E79" t="n">
         <v>0.0</v>
@@ -21312,303 +21315,303 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" t="n">
-        <v>37.0</v>
+        <v>141</v>
+      </c>
+      <c r="B80" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>187</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.0</v>
+        <v>133</v>
+      </c>
+      <c r="C81" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" t="n">
-        <v>242.0</v>
+        <v>54</v>
+      </c>
+      <c r="H82" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83" t="n">
-        <v>86.0</v>
+        <v>194</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>54</v>
-      </c>
-      <c r="H84" t="n">
-        <v>134.0</v>
+        <v>135</v>
+      </c>
+      <c r="B84" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>135</v>
-      </c>
-      <c r="B85" t="n">
-        <v>145.0</v>
+        <v>101</v>
+      </c>
+      <c r="D85" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>101</v>
-      </c>
-      <c r="D86" t="n">
-        <v>162.0</v>
+        <v>98</v>
+      </c>
+      <c r="B86" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" t="n">
-        <v>106.0</v>
+        <v>120</v>
+      </c>
+      <c r="D87" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" t="n">
-        <v>182.0</v>
+        <v>72</v>
+      </c>
+      <c r="I88" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>72</v>
-      </c>
-      <c r="H89" t="n">
-        <v>270.0</v>
+        <v>63</v>
+      </c>
+      <c r="B89" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" t="n">
-        <v>101.0</v>
+        <v>58</v>
+      </c>
+      <c r="C90" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" t="n">
-        <v>25.0</v>
+        <v>82</v>
+      </c>
+      <c r="D91" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" t="n">
-        <v>134.0</v>
+        <v>158</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>158</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.0</v>
+        <v>109</v>
+      </c>
+      <c r="B93" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94" t="n">
-        <v>248.0</v>
+        <v>159</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>159</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.0</v>
+        <v>136</v>
+      </c>
+      <c r="C95" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" t="n">
-        <v>149.0</v>
+        <v>156</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>156</v>
-      </c>
-      <c r="I97" t="n">
+        <v>184</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>184</v>
-      </c>
-      <c r="H98" t="n">
+        <v>157</v>
+      </c>
+      <c r="J98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>157</v>
-      </c>
-      <c r="I99" t="n">
+        <v>185</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>185</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.0</v>
+        <v>87</v>
+      </c>
+      <c r="E100" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>87</v>
-      </c>
-      <c r="E101" t="n">
-        <v>248.0</v>
+        <v>186</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>186</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.0</v>
+        <v>137</v>
+      </c>
+      <c r="D102" t="n">
+        <v>226.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" t="n">
-        <v>226.0</v>
+        <v>44</v>
+      </c>
+      <c r="I103" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H104" t="n">
-        <v>384.0</v>
+        <v>74</v>
+      </c>
+      <c r="B104" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>74</v>
-      </c>
-      <c r="B105" t="n">
-        <v>18.0</v>
+        <v>139</v>
+      </c>
+      <c r="G105" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>139</v>
-      </c>
-      <c r="G106" t="n">
-        <v>73.0</v>
+        <v>125</v>
+      </c>
+      <c r="H106" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>125</v>
-      </c>
-      <c r="H107" t="n">
-        <v>98.0</v>
+        <v>108</v>
+      </c>
+      <c r="B107" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="n">
-        <v>118.0</v>
+        <v>83</v>
+      </c>
+      <c r="D108" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>83</v>
-      </c>
-      <c r="D109" t="n">
-        <v>84.0</v>
+        <v>61</v>
+      </c>
+      <c r="B109" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>61</v>
-      </c>
-      <c r="B110" t="n">
-        <v>54.0</v>
+        <v>138</v>
+      </c>
+      <c r="C110" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C111" t="n">
-        <v>152.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C112" t="n">
-        <v>198.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.0</v>
+        <v>92</v>
+      </c>
+      <c r="F113" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>92</v>
-      </c>
-      <c r="F114" t="n">
-        <v>272.0</v>
+        <v>31</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>31</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.0</v>
+        <v>121</v>
+      </c>
+      <c r="F115" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>121</v>
-      </c>
-      <c r="F116" t="n">
-        <v>232.0</v>
+        <v>155</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C117" t="n">
         <v>0.0</v>
@@ -21616,23 +21619,23 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.0</v>
+        <v>93</v>
+      </c>
+      <c r="H118" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>93</v>
-      </c>
-      <c r="H119" t="n">
-        <v>148.0</v>
+        <v>153</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C120" t="n">
         <v>0.0</v>
@@ -21640,23 +21643,23 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>152</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.0</v>
+        <v>85</v>
+      </c>
+      <c r="B121" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>85</v>
-      </c>
-      <c r="B122" t="n">
-        <v>280.0</v>
+        <v>151</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C123" t="n">
         <v>0.0</v>
@@ -21664,31 +21667,31 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>150</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.0</v>
+        <v>100</v>
+      </c>
+      <c r="J124" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>100</v>
-      </c>
-      <c r="I125" t="n">
-        <v>91.0</v>
+        <v>88</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>88</v>
-      </c>
-      <c r="B126" t="n">
-        <v>123.0</v>
+        <v>182</v>
+      </c>
+      <c r="H126" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H127" t="n">
         <v>69.0</v>
@@ -21696,113 +21699,105 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>183</v>
-      </c>
-      <c r="H128" t="n">
-        <v>69.0</v>
+        <v>147</v>
+      </c>
+      <c r="F128" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="F129" t="n">
-        <v>53.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>59</v>
-      </c>
-      <c r="F130" t="n">
-        <v>106.0</v>
+        <v>55</v>
+      </c>
+      <c r="B130" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>55</v>
-      </c>
-      <c r="B131" t="n">
-        <v>60.0</v>
+        <v>26</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>26</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.0</v>
+        <v>80</v>
+      </c>
+      <c r="I132" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>80</v>
-      </c>
-      <c r="H133" t="n">
-        <v>313.0</v>
+        <v>148</v>
+      </c>
+      <c r="I133" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>148</v>
-      </c>
-      <c r="H134" t="n">
-        <v>416.0</v>
+        <v>122</v>
+      </c>
+      <c r="D134" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" t="n">
-        <v>121.0</v>
+        <v>28</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>28</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.0</v>
+        <v>86</v>
+      </c>
+      <c r="F136" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>86</v>
-      </c>
-      <c r="F137" t="n">
-        <v>132.0</v>
+        <v>123</v>
+      </c>
+      <c r="C137" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>123</v>
-      </c>
-      <c r="C138" t="n">
-        <v>150.0</v>
+        <v>104</v>
+      </c>
+      <c r="D138" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D139" t="n">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>33</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
         <v>78</v>
       </c>
-      <c r="I141" t="n">
+      <c r="J140" t="n">
         <v>53.0</v>
       </c>
     </row>
@@ -21813,7 +21808,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21891,25 +21886,33 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>132.0</v>
+        <v>466.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="n">
-        <v>819.0</v>
+        <v>28</v>
+      </c>
+      <c r="C10" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>819.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>1000.0</v>
       </c>
     </row>
@@ -21920,10 +21923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD202"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25973,94 +25976,94 @@
     </row>
     <row ht="15" r="177" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="27" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="B177" s="28">
-        <v>0.79279999999999995</v>
+        <v>2.2338</v>
       </c>
       <c r="C177" s="28">
-        <v>5.7999999999999996E-3</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="D177" s="28">
-        <v>1.0200000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E177" s="28">
-        <v>1.6000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F177" s="28">
-        <v>4.0899999999999999E-2</v>
+        <v>0.1308</v>
       </c>
       <c r="G177" s="28">
-        <v>5.0000000000000001E-4</v>
+        <v>5.3E-3</v>
       </c>
     </row>
     <row ht="15" r="178" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="27" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="B178" s="28">
-        <v>0.79279999999999995</v>
+        <v>2.2338</v>
       </c>
       <c r="C178" s="28">
-        <v>5.7999999999999996E-3</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="D178" s="28">
-        <v>1.0200000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E178" s="28">
-        <v>1.6000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F178" s="28">
-        <v>4.0899999999999999E-2</v>
+        <v>0.1308</v>
       </c>
       <c r="G178" s="28">
-        <v>5.0000000000000001E-4</v>
+        <v>5.3E-3</v>
       </c>
     </row>
     <row ht="15" r="179" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="27" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="B179" s="28">
-        <v>0.79279999999999995</v>
+        <v>2.2338</v>
       </c>
       <c r="C179" s="28">
-        <v>5.7999999999999996E-3</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="D179" s="28">
-        <v>1.0200000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E179" s="28">
-        <v>1.6000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F179" s="28">
-        <v>4.0899999999999999E-2</v>
+        <v>0.1308</v>
       </c>
       <c r="G179" s="28">
-        <v>5.0000000000000001E-4</v>
+        <v>5.3E-3</v>
       </c>
     </row>
     <row ht="15" r="180" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="27" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="B180" s="28">
-        <v>0.79279999999999995</v>
+        <v>2.2338</v>
       </c>
       <c r="C180" s="28">
-        <v>5.7999999999999996E-3</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="D180" s="28">
-        <v>1.0200000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E180" s="28">
-        <v>1.6000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F180" s="28">
-        <v>4.0899999999999999E-2</v>
+        <v>0.1308</v>
       </c>
       <c r="G180" s="28">
-        <v>5.0000000000000001E-4</v>
+        <v>5.3E-3</v>
       </c>
     </row>
     <row ht="15" r="181" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
@@ -26157,99 +26160,99 @@
     </row>
     <row ht="15" r="185" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="27" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="B185" s="28">
-        <v>2.2338</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="C185" s="28">
-        <v>1.5100000000000001E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D185" s="28">
-        <v>1.8800000000000001E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E185" s="28">
-        <v>2.0999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F185" s="28">
-        <v>0.1308</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="G185" s="28">
-        <v>5.3E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row ht="15" r="186" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="27" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="B186" s="28">
-        <v>2.2338</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="C186" s="28">
-        <v>1.5100000000000001E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D186" s="28">
-        <v>1.8800000000000001E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E186" s="28">
-        <v>2.0999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F186" s="28">
-        <v>0.1308</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="G186" s="28">
-        <v>5.3E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row ht="15" r="187" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="27" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="B187" s="28">
-        <v>2.2338</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="C187" s="28">
-        <v>1.5100000000000001E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D187" s="28">
-        <v>1.8800000000000001E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E187" s="28">
-        <v>2.0999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F187" s="28">
-        <v>0.1308</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="G187" s="28">
-        <v>5.3E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row ht="15" r="188" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="27" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="B188" s="28">
-        <v>2.2338</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="C188" s="28">
-        <v>1.5100000000000001E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D188" s="28">
-        <v>1.8800000000000001E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E188" s="28">
-        <v>2.0999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F188" s="28">
-        <v>0.1308</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="G188" s="28">
-        <v>5.3E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row ht="15" r="189" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="27" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B189" s="28">
         <v>0.65710000000000002</v>
@@ -26272,99 +26275,99 @@
     </row>
     <row ht="15" r="190" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B190" s="28">
-        <v>0.65710000000000002</v>
+        <v>2.8008999999999999</v>
       </c>
       <c r="C190" s="28">
-        <v>3.8E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D190" s="28">
-        <v>8.0999999999999996E-3</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="E190" s="28">
-        <v>8.9999999999999998E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F190" s="28">
-        <v>3.9300000000000002E-2</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G190" s="28">
-        <v>1.2999999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row ht="15" r="191" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B191" s="28">
-        <v>0.65710000000000002</v>
+        <v>2.8008999999999999</v>
       </c>
       <c r="C191" s="28">
-        <v>3.8E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D191" s="28">
-        <v>8.0999999999999996E-3</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="E191" s="28">
-        <v>8.9999999999999998E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F191" s="28">
-        <v>3.9300000000000002E-2</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G191" s="28">
-        <v>1.2999999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row ht="15" r="192" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B192" s="28">
-        <v>0.65710000000000002</v>
+        <v>2.8008999999999999</v>
       </c>
       <c r="C192" s="28">
-        <v>3.8E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D192" s="28">
-        <v>8.0999999999999996E-3</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="E192" s="28">
-        <v>8.9999999999999998E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F192" s="28">
-        <v>3.9300000000000002E-2</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G192" s="28">
-        <v>1.2999999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row ht="15" r="193" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B193" s="28">
-        <v>0.65710000000000002</v>
+        <v>2.8008999999999999</v>
       </c>
       <c r="C193" s="28">
-        <v>3.8E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D193" s="28">
-        <v>8.0999999999999996E-3</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="E193" s="28">
-        <v>8.9999999999999998E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F193" s="28">
-        <v>3.9300000000000002E-2</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G193" s="28">
-        <v>1.2999999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row ht="15" r="194" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B194" s="28">
         <v>2.8008999999999999</v>
@@ -26387,76 +26390,76 @@
     </row>
     <row ht="15" r="195" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B195" s="28">
-        <v>2.8008999999999999</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="C195" s="28">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D195" s="28">
-        <v>4.1799999999999997E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="E195" s="28">
-        <v>3.2000000000000002E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F195" s="28">
-        <v>0.30399999999999999</v>
+        <v>0.1532</v>
       </c>
       <c r="G195" s="28">
-        <v>3.7000000000000002E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row ht="15" r="196" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="27" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B196" s="28">
-        <v>2.8008999999999999</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="C196" s="28">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D196" s="28">
-        <v>4.1799999999999997E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="E196" s="28">
-        <v>3.2000000000000002E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F196" s="28">
-        <v>0.30399999999999999</v>
+        <v>0.1532</v>
       </c>
       <c r="G196" s="28">
-        <v>3.7000000000000002E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row ht="15" r="197" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B197" s="28">
-        <v>2.8008999999999999</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="C197" s="28">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D197" s="28">
-        <v>4.1799999999999997E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="E197" s="28">
-        <v>3.2000000000000002E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F197" s="28">
-        <v>0.30399999999999999</v>
+        <v>0.1532</v>
       </c>
       <c r="G197" s="28">
-        <v>3.7000000000000002E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row ht="15" r="198" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B198" s="28">
         <v>2.8008999999999999</v>
@@ -26474,98 +26477,6 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="G198" s="28">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row ht="15" r="199" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B199" s="28">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="C199" s="28">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="D199" s="28">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="E199" s="28">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F199" s="28">
-        <v>0.1532</v>
-      </c>
-      <c r="G199" s="28">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row ht="15" r="200" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B200" s="28">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="C200" s="28">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="D200" s="28">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="E200" s="28">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F200" s="28">
-        <v>0.1532</v>
-      </c>
-      <c r="G200" s="28">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row ht="15" r="201" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B201" s="28">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="C201" s="28">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="D201" s="28">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="E201" s="28">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F201" s="28">
-        <v>0.1532</v>
-      </c>
-      <c r="G201" s="28">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row ht="15" r="202" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B202" s="28">
-        <v>2.8008999999999999</v>
-      </c>
-      <c r="C202" s="28">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D202" s="28">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="E202" s="28">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F202" s="28">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G202" s="28">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
@@ -26582,10 +26493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26594,7 +26505,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="3.81640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="33.5" r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="33.5" r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>40</v>
       </c>
@@ -26614,16 +26525,19 @@
         <v>28</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>41</v>
       </c>
@@ -26643,16 +26557,19 @@
         <v>568</v>
       </c>
       <c r="G2" s="28">
+        <v>563</v>
+      </c>
+      <c r="H2" s="28">
         <v>843</v>
       </c>
-      <c r="H2" s="28">
+      <c r="I2" s="28">
         <v>1103</v>
       </c>
-      <c r="I2" s="28">
+      <c r="J2" s="28">
         <v>246</v>
       </c>
     </row>
-    <row ht="15" r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
@@ -26672,16 +26589,19 @@
         <v>517</v>
       </c>
       <c r="G3" s="28">
+        <v>251</v>
+      </c>
+      <c r="H3" s="28">
         <v>456</v>
       </c>
-      <c r="H3" s="28">
+      <c r="I3" s="28">
         <v>751</v>
       </c>
-      <c r="I3" s="28">
+      <c r="J3" s="28">
         <v>170</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
         <v>43</v>
       </c>
@@ -26701,16 +26621,19 @@
         <v>437</v>
       </c>
       <c r="G4" s="28">
+        <v>102</v>
+      </c>
+      <c r="H4" s="28">
         <v>940</v>
       </c>
-      <c r="H4" s="28">
+      <c r="I4" s="28">
         <v>1201</v>
       </c>
-      <c r="I4" s="28">
+      <c r="J4" s="28">
         <v>561</v>
       </c>
     </row>
-    <row ht="15" r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="s">
         <v>44</v>
       </c>
@@ -26730,16 +26653,19 @@
         <v>384</v>
       </c>
       <c r="G5" s="28">
+        <v>49</v>
+      </c>
+      <c r="H5" s="28">
         <v>887</v>
       </c>
-      <c r="H5" s="28">
+      <c r="I5" s="28">
         <v>1148</v>
       </c>
-      <c r="I5" s="28">
+      <c r="J5" s="28">
         <v>508</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>45</v>
       </c>
@@ -26759,16 +26685,19 @@
         <v>662</v>
       </c>
       <c r="G6" s="28">
+        <v>669</v>
+      </c>
+      <c r="H6" s="28">
         <v>922</v>
       </c>
-      <c r="H6" s="28">
+      <c r="I6" s="28">
         <v>1182</v>
       </c>
-      <c r="I6" s="28">
+      <c r="J6" s="28">
         <v>339</v>
       </c>
     </row>
-    <row ht="15" r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="s">
         <v>46</v>
       </c>
@@ -26788,16 +26717,19 @@
         <v>222</v>
       </c>
       <c r="G7" s="28">
+        <v>553</v>
+      </c>
+      <c r="H7" s="28">
         <v>373</v>
       </c>
-      <c r="H7" s="28">
+      <c r="I7" s="28">
         <v>634</v>
       </c>
-      <c r="I7" s="28">
+      <c r="J7" s="28">
         <v>447</v>
       </c>
     </row>
-    <row ht="15" r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
         <v>49</v>
       </c>
@@ -26817,16 +26749,19 @@
         <v>521</v>
       </c>
       <c r="G8" s="28">
+        <v>705</v>
+      </c>
+      <c r="H8" s="28">
         <v>485</v>
       </c>
-      <c r="H8" s="28">
+      <c r="I8" s="28">
         <v>745</v>
       </c>
-      <c r="I8" s="28">
+      <c r="J8" s="28">
         <v>263</v>
       </c>
     </row>
-    <row ht="15" r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
         <v>50</v>
       </c>
@@ -26846,16 +26781,19 @@
         <v>584</v>
       </c>
       <c r="G9" s="28">
+        <v>703</v>
+      </c>
+      <c r="H9" s="28">
         <v>675</v>
       </c>
-      <c r="H9" s="28">
+      <c r="I9" s="28">
         <v>935</v>
       </c>
-      <c r="I9" s="28">
+      <c r="J9" s="28">
         <v>261</v>
       </c>
     </row>
-    <row ht="15" r="10" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
         <v>51</v>
       </c>
@@ -26875,16 +26813,19 @@
         <v>364</v>
       </c>
       <c r="G10" s="28">
+        <v>30</v>
+      </c>
+      <c r="H10" s="28">
         <v>868</v>
       </c>
-      <c r="H10" s="28">
+      <c r="I10" s="28">
         <v>1128</v>
       </c>
-      <c r="I10" s="28">
+      <c r="J10" s="28">
         <v>488</v>
       </c>
     </row>
-    <row ht="15" r="11" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27" t="s">
         <v>52</v>
       </c>
@@ -26904,16 +26845,19 @@
         <v>398</v>
       </c>
       <c r="G11" s="28">
+        <v>729</v>
+      </c>
+      <c r="H11" s="28">
         <v>136</v>
       </c>
-      <c r="H11" s="28">
+      <c r="I11" s="28">
         <v>396</v>
       </c>
-      <c r="I11" s="28">
+      <c r="J11" s="28">
         <v>466</v>
       </c>
     </row>
-    <row ht="15" r="12" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27" t="s">
         <v>53</v>
       </c>
@@ -26933,16 +26877,19 @@
         <v>421</v>
       </c>
       <c r="G12" s="28">
+        <v>368</v>
+      </c>
+      <c r="H12" s="28">
         <v>924</v>
       </c>
-      <c r="H12" s="28">
+      <c r="I12" s="28">
         <v>1113</v>
       </c>
-      <c r="I12" s="28">
+      <c r="J12" s="28">
         <v>284</v>
       </c>
     </row>
-    <row ht="15" r="13" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="27" t="s">
         <v>54</v>
       </c>
@@ -26962,16 +26909,19 @@
         <v>134</v>
       </c>
       <c r="G13" s="28">
+        <v>238</v>
+      </c>
+      <c r="H13" s="28">
         <v>638</v>
       </c>
-      <c r="H13" s="28">
+      <c r="I13" s="28">
         <v>898</v>
       </c>
-      <c r="I13" s="28">
+      <c r="J13" s="28">
         <v>256</v>
       </c>
     </row>
-    <row ht="15" r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="27" t="s">
         <v>55</v>
       </c>
@@ -26991,16 +26941,19 @@
         <v>546</v>
       </c>
       <c r="G14" s="28">
+        <v>671</v>
+      </c>
+      <c r="H14" s="28">
         <v>538</v>
       </c>
-      <c r="H14" s="28">
+      <c r="I14" s="28">
         <v>798</v>
       </c>
-      <c r="I14" s="28">
+      <c r="J14" s="28">
         <v>230</v>
       </c>
     </row>
-    <row ht="15" r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
         <v>56</v>
       </c>
@@ -27020,16 +26973,19 @@
         <v>858</v>
       </c>
       <c r="G15" s="28">
+        <v>1190</v>
+      </c>
+      <c r="H15" s="28">
         <v>502</v>
       </c>
-      <c r="H15" s="28">
+      <c r="I15" s="28">
         <v>252</v>
       </c>
-      <c r="I15" s="28">
+      <c r="J15" s="28">
         <v>996</v>
       </c>
     </row>
-    <row ht="15" r="16" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="16" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="27" t="s">
         <v>57</v>
       </c>
@@ -27049,16 +27005,19 @@
         <v>506</v>
       </c>
       <c r="G16" s="28">
+        <v>838</v>
+      </c>
+      <c r="H16" s="28">
         <v>175</v>
       </c>
-      <c r="H16" s="28">
+      <c r="I16" s="28">
         <v>435</v>
       </c>
-      <c r="I16" s="28">
+      <c r="J16" s="28">
         <v>437</v>
       </c>
     </row>
-    <row ht="15" r="17" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="17" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
         <v>58</v>
       </c>
@@ -27078,16 +27037,19 @@
         <v>498</v>
       </c>
       <c r="G17" s="28">
+        <v>829</v>
+      </c>
+      <c r="H17" s="28">
         <v>164</v>
       </c>
-      <c r="H17" s="28">
+      <c r="I17" s="28">
         <v>424</v>
       </c>
-      <c r="I17" s="28">
+      <c r="J17" s="28">
         <v>464</v>
       </c>
     </row>
-    <row ht="15" r="18" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
         <v>59</v>
       </c>
@@ -27107,16 +27069,19 @@
         <v>769</v>
       </c>
       <c r="G18" s="28">
+        <v>1101</v>
+      </c>
+      <c r="H18" s="28">
         <v>298</v>
       </c>
-      <c r="H18" s="28">
+      <c r="I18" s="28">
         <v>116</v>
       </c>
-      <c r="I18" s="28">
+      <c r="J18" s="28">
         <v>912</v>
       </c>
     </row>
-    <row ht="15" r="19" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="19" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
         <v>60</v>
       </c>
@@ -27136,16 +27101,19 @@
         <v>728</v>
       </c>
       <c r="G19" s="28">
+        <v>1059</v>
+      </c>
+      <c r="H19" s="28">
         <v>345</v>
       </c>
-      <c r="H19" s="28">
+      <c r="I19" s="28">
         <v>229</v>
       </c>
-      <c r="I19" s="28">
+      <c r="J19" s="28">
         <v>865</v>
       </c>
     </row>
-    <row ht="15" r="20" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="20" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="27" t="s">
         <v>61</v>
       </c>
@@ -27165,16 +27133,19 @@
         <v>505</v>
       </c>
       <c r="G20" s="28">
+        <v>631</v>
+      </c>
+      <c r="H20" s="28">
         <v>563</v>
       </c>
-      <c r="H20" s="28">
+      <c r="I20" s="28">
         <v>823</v>
       </c>
-      <c r="I20" s="28">
+      <c r="J20" s="28">
         <v>189</v>
       </c>
     </row>
-    <row ht="15" r="21" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="21" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="27" t="s">
         <v>62</v>
       </c>
@@ -27194,16 +27165,19 @@
         <v>309</v>
       </c>
       <c r="G21" s="28">
+        <v>638</v>
+      </c>
+      <c r="H21" s="28">
         <v>262</v>
       </c>
-      <c r="H21" s="28">
+      <c r="I21" s="28">
         <v>522</v>
       </c>
-      <c r="I21" s="28">
+      <c r="J21" s="28">
         <v>372</v>
       </c>
     </row>
-    <row ht="15" r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="22" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="27" t="s">
         <v>63</v>
       </c>
@@ -27223,16 +27197,19 @@
         <v>652</v>
       </c>
       <c r="G22" s="28">
+        <v>771</v>
+      </c>
+      <c r="H22" s="28">
         <v>729</v>
       </c>
-      <c r="H22" s="28">
+      <c r="I22" s="28">
         <v>989</v>
       </c>
-      <c r="I22" s="28">
+      <c r="J22" s="28">
         <v>329</v>
       </c>
     </row>
-    <row ht="15" r="23" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="23" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="27" t="s">
         <v>64</v>
       </c>
@@ -27252,16 +27229,19 @@
         <v>428</v>
       </c>
       <c r="G23" s="28">
+        <v>759</v>
+      </c>
+      <c r="H23" s="28">
         <v>127</v>
       </c>
-      <c r="H23" s="28">
+      <c r="I23" s="28">
         <v>388</v>
       </c>
-      <c r="I23" s="28">
+      <c r="J23" s="28">
         <v>565</v>
       </c>
     </row>
-    <row ht="15" r="24" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="24" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
@@ -27281,16 +27261,19 @@
         <v>988</v>
       </c>
       <c r="G24" s="28">
+        <v>1320</v>
+      </c>
+      <c r="H24" s="28">
         <v>675</v>
       </c>
-      <c r="H24" s="28">
+      <c r="I24" s="28">
         <v>425</v>
       </c>
-      <c r="I24" s="28">
+      <c r="J24" s="28">
         <v>1126</v>
       </c>
     </row>
-    <row ht="15" r="25" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="25" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="27" t="s">
         <v>66</v>
       </c>
@@ -27310,16 +27293,19 @@
         <v>628</v>
       </c>
       <c r="G25" s="28">
+        <v>747</v>
+      </c>
+      <c r="H25" s="28">
         <v>705</v>
       </c>
-      <c r="H25" s="28">
+      <c r="I25" s="28">
         <v>965</v>
       </c>
-      <c r="I25" s="28">
+      <c r="J25" s="28">
         <v>305</v>
       </c>
     </row>
-    <row ht="15" r="26" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="26" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="27" t="s">
         <v>67</v>
       </c>
@@ -27339,16 +27325,19 @@
         <v>501</v>
       </c>
       <c r="G26" s="28">
+        <v>833</v>
+      </c>
+      <c r="H26" s="28">
         <v>149</v>
       </c>
-      <c r="H26" s="28">
+      <c r="I26" s="28">
         <v>409</v>
       </c>
-      <c r="I26" s="28">
+      <c r="J26" s="28">
         <v>493</v>
       </c>
     </row>
-    <row ht="15" r="27" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="27" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="27" t="s">
         <v>68</v>
       </c>
@@ -27368,16 +27357,19 @@
         <v>484</v>
       </c>
       <c r="G27" s="28">
+        <v>739</v>
+      </c>
+      <c r="H27" s="28">
         <v>412</v>
       </c>
-      <c r="H27" s="28">
+      <c r="I27" s="28">
         <v>672</v>
       </c>
-      <c r="I27" s="28">
+      <c r="J27" s="28">
         <v>297</v>
       </c>
     </row>
-    <row ht="15" r="28" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="28" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="27" t="s">
         <v>69</v>
       </c>
@@ -27397,16 +27389,19 @@
         <v>784</v>
       </c>
       <c r="G28" s="28">
+        <v>1115</v>
+      </c>
+      <c r="H28" s="28">
         <v>401</v>
       </c>
-      <c r="H28" s="28">
+      <c r="I28" s="28">
         <v>227</v>
       </c>
-      <c r="I28" s="28">
+      <c r="J28" s="28">
         <v>921</v>
       </c>
     </row>
-    <row ht="15" r="29" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="29" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27" t="s">
         <v>71</v>
       </c>
@@ -27426,16 +27421,19 @@
         <v>422</v>
       </c>
       <c r="G29" s="28">
+        <v>817</v>
+      </c>
+      <c r="H29" s="28">
         <v>294</v>
       </c>
-      <c r="H29" s="28">
+      <c r="I29" s="28">
         <v>554</v>
       </c>
-      <c r="I29" s="28">
+      <c r="J29" s="28">
         <v>322</v>
       </c>
     </row>
-    <row ht="15" r="30" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="30" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="27" t="s">
         <v>72</v>
       </c>
@@ -27455,16 +27453,19 @@
         <v>270</v>
       </c>
       <c r="G30" s="28">
+        <v>93</v>
+      </c>
+      <c r="H30" s="28">
         <v>773</v>
       </c>
-      <c r="H30" s="28">
+      <c r="I30" s="28">
         <v>1034</v>
       </c>
-      <c r="I30" s="28">
+      <c r="J30" s="28">
         <v>366</v>
       </c>
     </row>
-    <row ht="15" r="31" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="31" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="27" t="s">
         <v>74</v>
       </c>
@@ -27484,16 +27485,19 @@
         <v>552</v>
       </c>
       <c r="G31" s="28">
+        <v>672</v>
+      </c>
+      <c r="H31" s="28">
         <v>622</v>
       </c>
-      <c r="H31" s="28">
+      <c r="I31" s="28">
         <v>882</v>
       </c>
-      <c r="I31" s="28">
+      <c r="J31" s="28">
         <v>230</v>
       </c>
     </row>
-    <row ht="15" r="32" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="32" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="27" t="s">
         <v>75</v>
       </c>
@@ -27513,16 +27517,19 @@
         <v>551</v>
       </c>
       <c r="G32" s="28">
+        <v>883</v>
+      </c>
+      <c r="H32" s="28">
         <v>200</v>
       </c>
-      <c r="H32" s="28">
+      <c r="I32" s="28">
         <v>459</v>
       </c>
-      <c r="I32" s="28">
+      <c r="J32" s="28">
         <v>543</v>
       </c>
     </row>
-    <row ht="15" r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="33" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="27" t="s">
         <v>76</v>
       </c>
@@ -27542,16 +27549,19 @@
         <v>305</v>
       </c>
       <c r="G33" s="28">
+        <v>480</v>
+      </c>
+      <c r="H33" s="28">
         <v>549</v>
       </c>
-      <c r="H33" s="28">
+      <c r="I33" s="28">
         <v>809</v>
       </c>
-      <c r="I33" s="28">
+      <c r="J33" s="28">
         <v>45</v>
       </c>
     </row>
-    <row ht="15" r="34" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="34" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="27" t="s">
         <v>33</v>
       </c>
@@ -27571,16 +27581,19 @@
         <v>321</v>
       </c>
       <c r="G34" s="28">
+        <v>457</v>
+      </c>
+      <c r="H34" s="28">
         <v>613</v>
       </c>
-      <c r="H34" s="28">
+      <c r="I34" s="28">
         <v>873</v>
       </c>
-      <c r="I34" s="28">
+      <c r="J34" s="28">
         <v>0</v>
       </c>
     </row>
-    <row ht="15" r="35" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="35" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
         <v>77</v>
       </c>
@@ -27600,16 +27613,19 @@
         <v>846</v>
       </c>
       <c r="G35" s="28">
+        <v>1178</v>
+      </c>
+      <c r="H35" s="28">
         <v>490</v>
       </c>
-      <c r="H35" s="28">
+      <c r="I35" s="28">
         <v>239</v>
       </c>
-      <c r="I35" s="28">
+      <c r="J35" s="28">
         <v>984</v>
       </c>
     </row>
-    <row ht="15" r="36" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="36" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="27" t="s">
         <v>78</v>
       </c>
@@ -27629,16 +27645,19 @@
         <v>741</v>
       </c>
       <c r="G36" s="28">
+        <v>1072</v>
+      </c>
+      <c r="H36" s="28">
         <v>235</v>
       </c>
-      <c r="H36" s="28">
+      <c r="I36" s="28">
         <v>53</v>
       </c>
-      <c r="I36" s="28">
+      <c r="J36" s="28">
         <v>849</v>
       </c>
     </row>
-    <row ht="15" r="37" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="37" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="27" t="s">
         <v>79</v>
       </c>
@@ -27658,16 +27677,19 @@
         <v>791</v>
       </c>
       <c r="G37" s="28">
+        <v>1123</v>
+      </c>
+      <c r="H37" s="28">
         <v>393</v>
       </c>
-      <c r="H37" s="28">
+      <c r="I37" s="28">
         <v>142</v>
       </c>
-      <c r="I37" s="28">
+      <c r="J37" s="28">
         <v>1007</v>
       </c>
     </row>
-    <row ht="15" r="38" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="38" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="27" t="s">
         <v>80</v>
       </c>
@@ -27687,16 +27709,19 @@
         <v>313</v>
       </c>
       <c r="G38" s="28">
+        <v>69</v>
+      </c>
+      <c r="H38" s="28">
         <v>816</v>
       </c>
-      <c r="H38" s="28">
+      <c r="I38" s="28">
         <v>1077</v>
       </c>
-      <c r="I38" s="28">
+      <c r="J38" s="28">
         <v>491</v>
       </c>
     </row>
-    <row ht="15" r="39" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="39" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="27" t="s">
         <v>82</v>
       </c>
@@ -27716,16 +27741,19 @@
         <v>238</v>
       </c>
       <c r="G39" s="28">
+        <v>454</v>
+      </c>
+      <c r="H39" s="28">
         <v>484</v>
       </c>
-      <c r="H39" s="28">
+      <c r="I39" s="28">
         <v>776</v>
       </c>
-      <c r="I39" s="28">
+      <c r="J39" s="28">
         <v>134</v>
       </c>
     </row>
-    <row ht="15" r="40" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="40" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="27" t="s">
         <v>30</v>
       </c>
@@ -27745,16 +27773,19 @@
         <v>505</v>
       </c>
       <c r="G40" s="28">
+        <v>837</v>
+      </c>
+      <c r="H40" s="28">
         <v>0</v>
       </c>
-      <c r="H40" s="28">
+      <c r="I40" s="28">
         <v>260</v>
       </c>
-      <c r="I40" s="28">
+      <c r="J40" s="28">
         <v>612</v>
       </c>
     </row>
-    <row ht="15" r="41" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="41" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="27" t="s">
         <v>83</v>
       </c>
@@ -27774,16 +27805,19 @@
         <v>347</v>
       </c>
       <c r="G41" s="28">
+        <v>373</v>
+      </c>
+      <c r="H41" s="28">
         <v>653</v>
       </c>
-      <c r="H41" s="28">
+      <c r="I41" s="28">
         <v>913</v>
       </c>
-      <c r="I41" s="28">
+      <c r="J41" s="28">
         <v>84</v>
       </c>
     </row>
-    <row ht="15" r="42" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="42" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="27" t="s">
         <v>84</v>
       </c>
@@ -27803,16 +27837,19 @@
         <v>534</v>
       </c>
       <c r="G42" s="28">
+        <v>653</v>
+      </c>
+      <c r="H42" s="28">
         <v>626</v>
       </c>
-      <c r="H42" s="28">
+      <c r="I42" s="28">
         <v>885</v>
       </c>
-      <c r="I42" s="28">
+      <c r="J42" s="28">
         <v>212</v>
       </c>
     </row>
-    <row ht="15" r="43" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="43" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>85</v>
       </c>
@@ -27832,16 +27869,19 @@
         <v>648</v>
       </c>
       <c r="G43" s="28">
+        <v>654</v>
+      </c>
+      <c r="H43" s="28">
         <v>908</v>
       </c>
-      <c r="H43" s="28">
+      <c r="I43" s="28">
         <v>1168</v>
       </c>
-      <c r="I43" s="28">
+      <c r="J43" s="28">
         <v>325</v>
       </c>
     </row>
-    <row ht="15" r="44" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="44" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="27" t="s">
         <v>86</v>
       </c>
@@ -27861,16 +27901,19 @@
         <v>804</v>
       </c>
       <c r="G44" s="28">
+        <v>1135</v>
+      </c>
+      <c r="H44" s="28">
         <v>405</v>
       </c>
-      <c r="H44" s="28">
+      <c r="I44" s="28">
         <v>252</v>
       </c>
-      <c r="I44" s="28">
+      <c r="J44" s="28">
         <v>939</v>
       </c>
     </row>
-    <row ht="15" r="45" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="45" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="27" t="s">
         <v>87</v>
       </c>
@@ -27890,16 +27933,19 @@
         <v>382</v>
       </c>
       <c r="G45" s="28">
+        <v>716</v>
+      </c>
+      <c r="H45" s="28">
         <v>736</v>
       </c>
-      <c r="H45" s="28">
+      <c r="I45" s="28">
         <v>1028</v>
       </c>
-      <c r="I45" s="28">
+      <c r="J45" s="28">
         <v>715</v>
       </c>
     </row>
-    <row ht="15" r="46" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="46" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="27" t="s">
         <v>88</v>
       </c>
@@ -27919,16 +27965,19 @@
         <v>566</v>
       </c>
       <c r="G46" s="28">
+        <v>668</v>
+      </c>
+      <c r="H46" s="28">
         <v>738</v>
       </c>
-      <c r="H46" s="28">
+      <c r="I46" s="28">
         <v>1030</v>
       </c>
-      <c r="I46" s="28">
+      <c r="J46" s="28">
         <v>231</v>
       </c>
     </row>
-    <row ht="15" r="47" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="47" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="27" t="s">
         <v>89</v>
       </c>
@@ -27948,16 +27997,19 @@
         <v>165</v>
       </c>
       <c r="G47" s="28">
+        <v>499</v>
+      </c>
+      <c r="H47" s="28">
         <v>520</v>
       </c>
-      <c r="H47" s="28">
+      <c r="I47" s="28">
         <v>811</v>
       </c>
-      <c r="I47" s="28">
+      <c r="J47" s="28">
         <v>498</v>
       </c>
     </row>
-    <row ht="15" r="48" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="48" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="27" t="s">
         <v>90</v>
       </c>
@@ -27977,16 +28029,19 @@
         <v>493</v>
       </c>
       <c r="G48" s="28">
+        <v>825</v>
+      </c>
+      <c r="H48" s="28">
         <v>128</v>
       </c>
-      <c r="H48" s="28">
+      <c r="I48" s="28">
         <v>407</v>
       </c>
-      <c r="I48" s="28">
+      <c r="J48" s="28">
         <v>499</v>
       </c>
     </row>
-    <row ht="15" r="49" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="49" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="27" t="s">
         <v>91</v>
       </c>
@@ -28006,16 +28061,19 @@
         <v>807</v>
       </c>
       <c r="G49" s="28">
+        <v>1139</v>
+      </c>
+      <c r="H49" s="28">
         <v>425</v>
       </c>
-      <c r="H49" s="28">
+      <c r="I49" s="28">
         <v>264</v>
       </c>
-      <c r="I49" s="28">
+      <c r="J49" s="28">
         <v>945</v>
       </c>
     </row>
-    <row ht="15" r="50" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="50" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="27" t="s">
         <v>92</v>
       </c>
@@ -28035,16 +28093,19 @@
         <v>641</v>
       </c>
       <c r="G50" s="28">
+        <v>973</v>
+      </c>
+      <c r="H50" s="28">
         <v>301</v>
       </c>
-      <c r="H50" s="28">
+      <c r="I50" s="28">
         <v>307</v>
       </c>
-      <c r="I50" s="28">
+      <c r="J50" s="28">
         <v>779</v>
       </c>
     </row>
-    <row ht="15" r="51" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="51" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="27" t="s">
         <v>93</v>
       </c>
@@ -28064,16 +28125,19 @@
         <v>148</v>
       </c>
       <c r="G51" s="28">
+        <v>227</v>
+      </c>
+      <c r="H51" s="28">
         <v>651</v>
       </c>
-      <c r="H51" s="28">
+      <c r="I51" s="28">
         <v>912</v>
       </c>
-      <c r="I51" s="28">
+      <c r="J51" s="28">
         <v>282</v>
       </c>
     </row>
-    <row ht="15" r="52" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="52" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="27" t="s">
         <v>94</v>
       </c>
@@ -28093,16 +28157,19 @@
         <v>482</v>
       </c>
       <c r="G52" s="28">
+        <v>208</v>
+      </c>
+      <c r="H52" s="28">
         <v>985</v>
       </c>
-      <c r="H52" s="28">
+      <c r="I52" s="28">
         <v>1245</v>
       </c>
-      <c r="I52" s="28">
+      <c r="J52" s="28">
         <v>573</v>
       </c>
     </row>
-    <row ht="15" r="53" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="53" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="27" t="s">
         <v>95</v>
       </c>
@@ -28122,16 +28189,19 @@
         <v>181</v>
       </c>
       <c r="G53" s="28">
+        <v>510</v>
+      </c>
+      <c r="H53" s="28">
         <v>397</v>
       </c>
-      <c r="H53" s="28">
+      <c r="I53" s="28">
         <v>658</v>
       </c>
-      <c r="I53" s="28">
+      <c r="J53" s="28">
         <v>245</v>
       </c>
     </row>
-    <row ht="15" r="54" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="54" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="27" t="s">
         <v>97</v>
       </c>
@@ -28151,16 +28221,19 @@
         <v>505</v>
       </c>
       <c r="G54" s="28">
+        <v>512</v>
+      </c>
+      <c r="H54" s="28">
         <v>780</v>
       </c>
-      <c r="H54" s="28">
+      <c r="I54" s="28">
         <v>1040</v>
       </c>
-      <c r="I54" s="28">
+      <c r="J54" s="28">
         <v>183</v>
       </c>
     </row>
-    <row ht="15" r="55" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="55" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="27" t="s">
         <v>98</v>
       </c>
@@ -28180,16 +28253,19 @@
         <v>435</v>
       </c>
       <c r="G55" s="28">
+        <v>554</v>
+      </c>
+      <c r="H55" s="28">
         <v>553</v>
       </c>
-      <c r="H55" s="28">
+      <c r="I55" s="28">
         <v>813</v>
       </c>
-      <c r="I55" s="28">
+      <c r="J55" s="28">
         <v>113</v>
       </c>
     </row>
-    <row ht="15" r="56" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="56" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="27" t="s">
         <v>100</v>
       </c>
@@ -28209,16 +28285,19 @@
         <v>713</v>
       </c>
       <c r="G56" s="28">
+        <v>1045</v>
+      </c>
+      <c r="H56" s="28">
         <v>273</v>
       </c>
-      <c r="H56" s="28">
+      <c r="I56" s="28">
         <v>91</v>
       </c>
-      <c r="I56" s="28">
+      <c r="J56" s="28">
         <v>811</v>
       </c>
     </row>
-    <row ht="15" r="57" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="57" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="27" t="s">
         <v>101</v>
       </c>
@@ -28238,16 +28317,19 @@
         <v>310</v>
       </c>
       <c r="G57" s="28">
+        <v>597</v>
+      </c>
+      <c r="H57" s="28">
         <v>428</v>
       </c>
-      <c r="H57" s="28">
+      <c r="I57" s="28">
         <v>688</v>
       </c>
-      <c r="I57" s="28">
+      <c r="J57" s="28">
         <v>162</v>
       </c>
     </row>
-    <row ht="15" r="58" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="58" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="27" t="s">
         <v>102</v>
       </c>
@@ -28267,16 +28349,19 @@
         <v>176</v>
       </c>
       <c r="G58" s="28">
+        <v>394</v>
+      </c>
+      <c r="H58" s="28">
         <v>523</v>
       </c>
-      <c r="H58" s="28">
+      <c r="I58" s="28">
         <v>783</v>
       </c>
-      <c r="I58" s="28">
+      <c r="J58" s="28">
         <v>146</v>
       </c>
     </row>
-    <row ht="15" r="59" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="59" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="27" t="s">
         <v>103</v>
       </c>
@@ -28296,16 +28381,19 @@
         <v>765</v>
       </c>
       <c r="G59" s="28">
+        <v>1097</v>
+      </c>
+      <c r="H59" s="28">
         <v>425</v>
       </c>
-      <c r="H59" s="28">
+      <c r="I59" s="28">
         <v>332</v>
       </c>
-      <c r="I59" s="28">
+      <c r="J59" s="28">
         <v>903</v>
       </c>
     </row>
-    <row ht="15" r="60" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="60" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="27" t="s">
         <v>104</v>
       </c>
@@ -28325,16 +28413,19 @@
         <v>329</v>
       </c>
       <c r="G60" s="28">
+        <v>616</v>
+      </c>
+      <c r="H60" s="28">
         <v>447</v>
       </c>
-      <c r="H60" s="28">
+      <c r="I60" s="28">
         <v>707</v>
       </c>
-      <c r="I60" s="28">
+      <c r="J60" s="28">
         <v>180</v>
       </c>
     </row>
-    <row ht="15" r="61" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="61" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="27" t="s">
         <v>105</v>
       </c>
@@ -28354,16 +28445,19 @@
         <v>718</v>
       </c>
       <c r="G61" s="28">
+        <v>870</v>
+      </c>
+      <c r="H61" s="28">
         <v>385</v>
       </c>
-      <c r="H61" s="28">
+      <c r="I61" s="28">
         <v>644</v>
       </c>
-      <c r="I61" s="28">
+      <c r="J61" s="28">
         <v>452</v>
       </c>
     </row>
-    <row ht="15" r="62" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="62" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="27" t="s">
         <v>106</v>
       </c>
@@ -28383,16 +28477,19 @@
         <v>558</v>
       </c>
       <c r="G62" s="28">
+        <v>624</v>
+      </c>
+      <c r="H62" s="28">
         <v>788</v>
       </c>
-      <c r="H62" s="28">
+      <c r="I62" s="28">
         <v>1047</v>
       </c>
-      <c r="I62" s="28">
+      <c r="J62" s="28">
         <v>235</v>
       </c>
     </row>
-    <row ht="15" r="63" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="63" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="27" t="s">
         <v>107</v>
       </c>
@@ -28412,16 +28509,19 @@
         <v>722</v>
       </c>
       <c r="G63" s="28">
+        <v>1054</v>
+      </c>
+      <c r="H63" s="28">
         <v>217</v>
       </c>
-      <c r="H63" s="28">
+      <c r="I63" s="28">
         <v>101</v>
       </c>
-      <c r="I63" s="28">
+      <c r="J63" s="28">
         <v>831</v>
       </c>
     </row>
-    <row ht="15" r="64" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="64" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="27" t="s">
         <v>108</v>
       </c>
@@ -28441,16 +28541,19 @@
         <v>651</v>
       </c>
       <c r="G64" s="28">
+        <v>770</v>
+      </c>
+      <c r="H64" s="28">
         <v>745</v>
       </c>
-      <c r="H64" s="28">
+      <c r="I64" s="28">
         <v>1005</v>
       </c>
-      <c r="I64" s="28">
+      <c r="J64" s="28">
         <v>329</v>
       </c>
     </row>
-    <row ht="15" r="65" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="65" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="27" t="s">
         <v>109</v>
       </c>
@@ -28470,16 +28573,19 @@
         <v>636</v>
       </c>
       <c r="G65" s="28">
+        <v>703</v>
+      </c>
+      <c r="H65" s="28">
         <v>875</v>
       </c>
-      <c r="H65" s="28">
+      <c r="I65" s="28">
         <v>1135</v>
       </c>
-      <c r="I65" s="28">
+      <c r="J65" s="28">
         <v>314</v>
       </c>
     </row>
-    <row ht="15" r="66" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="66" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="27" t="s">
         <v>110</v>
       </c>
@@ -28499,16 +28605,19 @@
         <v>455</v>
       </c>
       <c r="G66" s="28">
+        <v>557</v>
+      </c>
+      <c r="H66" s="28">
         <v>648</v>
       </c>
-      <c r="H66" s="28">
+      <c r="I66" s="28">
         <v>908</v>
       </c>
-      <c r="I66" s="28">
+      <c r="J66" s="28">
         <v>132</v>
       </c>
     </row>
-    <row ht="15" r="67" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="67" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="27" t="s">
         <v>111</v>
       </c>
@@ -28528,16 +28637,19 @@
         <v>411</v>
       </c>
       <c r="G67" s="28">
+        <v>769</v>
+      </c>
+      <c r="H67" s="28">
         <v>337</v>
       </c>
-      <c r="H67" s="28">
+      <c r="I67" s="28">
         <v>596</v>
       </c>
-      <c r="I67" s="28">
+      <c r="J67" s="28">
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="68" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="68" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="27" t="s">
         <v>112</v>
       </c>
@@ -28557,16 +28669,19 @@
         <v>694</v>
       </c>
       <c r="G68" s="28">
+        <v>709</v>
+      </c>
+      <c r="H68" s="28">
         <v>954</v>
       </c>
-      <c r="H68" s="28">
+      <c r="I68" s="28">
         <v>1214</v>
       </c>
-      <c r="I68" s="28">
+      <c r="J68" s="28">
         <v>372</v>
       </c>
     </row>
-    <row ht="15" r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="69" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="27" t="s">
         <v>31</v>
       </c>
@@ -28586,16 +28701,19 @@
         <v>766</v>
       </c>
       <c r="G69" s="28">
+        <v>1098</v>
+      </c>
+      <c r="H69" s="28">
         <v>260</v>
       </c>
-      <c r="H69" s="28">
+      <c r="I69" s="28">
         <v>0</v>
       </c>
-      <c r="I69" s="28">
+      <c r="J69" s="28">
         <v>875</v>
       </c>
     </row>
-    <row ht="15" r="70" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="70" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="27" t="s">
         <v>26</v>
       </c>
@@ -28615,16 +28733,19 @@
         <v>788</v>
       </c>
       <c r="G70" s="28">
+        <v>1120</v>
+      </c>
+      <c r="H70" s="28">
         <v>400</v>
       </c>
-      <c r="H70" s="28">
+      <c r="I70" s="28">
         <v>150</v>
       </c>
-      <c r="I70" s="28">
+      <c r="J70" s="28">
         <v>926</v>
       </c>
     </row>
-    <row ht="15" r="71" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="71" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="27" t="s">
         <v>113</v>
       </c>
@@ -28644,16 +28765,19 @@
         <v>527</v>
       </c>
       <c r="G71" s="28">
+        <v>646</v>
+      </c>
+      <c r="H71" s="28">
         <v>595</v>
       </c>
-      <c r="H71" s="28">
+      <c r="I71" s="28">
         <v>855</v>
       </c>
-      <c r="I71" s="28">
+      <c r="J71" s="28">
         <v>205</v>
       </c>
     </row>
-    <row ht="15" r="72" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="72" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="27" t="s">
         <v>117</v>
       </c>
@@ -28673,16 +28797,19 @@
         <v>511</v>
       </c>
       <c r="G72" s="28">
+        <v>630</v>
+      </c>
+      <c r="H72" s="28">
         <v>603</v>
       </c>
-      <c r="H72" s="28">
+      <c r="I72" s="28">
         <v>862</v>
       </c>
-      <c r="I72" s="28">
+      <c r="J72" s="28">
         <v>189</v>
       </c>
     </row>
-    <row ht="15" r="73" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="73" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="27" t="s">
         <v>118</v>
       </c>
@@ -28702,16 +28829,19 @@
         <v>421</v>
       </c>
       <c r="G73" s="28">
+        <v>731</v>
+      </c>
+      <c r="H73" s="28">
         <v>386</v>
       </c>
-      <c r="H73" s="28">
+      <c r="I73" s="28">
         <v>646</v>
       </c>
-      <c r="I73" s="28">
+      <c r="J73" s="28">
         <v>236</v>
       </c>
     </row>
-    <row ht="15" r="74" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="74" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="27" t="s">
         <v>119</v>
       </c>
@@ -28731,16 +28861,19 @@
         <v>486</v>
       </c>
       <c r="G74" s="28">
+        <v>818</v>
+      </c>
+      <c r="H74" s="28">
         <v>245</v>
       </c>
-      <c r="H74" s="28">
+      <c r="I74" s="28">
         <v>432</v>
       </c>
-      <c r="I74" s="28">
+      <c r="J74" s="28">
         <v>624</v>
       </c>
     </row>
-    <row ht="15" r="75" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="75" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="27" t="s">
         <v>120</v>
       </c>
@@ -28760,16 +28893,19 @@
         <v>353</v>
       </c>
       <c r="G75" s="28">
+        <v>302</v>
+      </c>
+      <c r="H75" s="28">
         <v>751</v>
       </c>
-      <c r="H75" s="28">
+      <c r="I75" s="28">
         <v>1010</v>
       </c>
-      <c r="I75" s="28">
+      <c r="J75" s="28">
         <v>182</v>
       </c>
     </row>
-    <row ht="15" r="76" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="76" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="27" t="s">
         <v>28</v>
       </c>
@@ -28789,16 +28925,19 @@
         <v>0</v>
       </c>
       <c r="G76" s="28">
+        <v>333</v>
+      </c>
+      <c r="H76" s="28">
         <v>506</v>
       </c>
-      <c r="H76" s="28">
+      <c r="I76" s="28">
         <v>766</v>
       </c>
-      <c r="I76" s="28">
+      <c r="J76" s="28">
         <v>322</v>
       </c>
     </row>
-    <row ht="15" r="77" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="77" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="27" t="s">
         <v>122</v>
       </c>
@@ -28818,16 +28957,19 @@
         <v>268</v>
       </c>
       <c r="G77" s="28">
+        <v>372</v>
+      </c>
+      <c r="H77" s="28">
         <v>628</v>
       </c>
-      <c r="H77" s="28">
+      <c r="I77" s="28">
         <v>889</v>
       </c>
-      <c r="I77" s="28">
+      <c r="J77" s="28">
         <v>121</v>
       </c>
     </row>
-    <row ht="15" r="78" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="78" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="27" t="s">
         <v>123</v>
       </c>
@@ -28847,16 +28989,19 @@
         <v>623</v>
       </c>
       <c r="G78" s="28">
+        <v>955</v>
+      </c>
+      <c r="H78" s="28">
         <v>289</v>
       </c>
-      <c r="H78" s="28">
+      <c r="I78" s="28">
         <v>549</v>
       </c>
-      <c r="I78" s="28">
+      <c r="J78" s="28">
         <v>431</v>
       </c>
     </row>
-    <row ht="15" r="79" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="79" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="27" t="s">
         <v>124</v>
       </c>
@@ -28876,16 +29021,19 @@
         <v>135</v>
       </c>
       <c r="G79" s="28">
+        <v>225</v>
+      </c>
+      <c r="H79" s="28">
         <v>639</v>
       </c>
-      <c r="H79" s="28">
+      <c r="I79" s="28">
         <v>899</v>
       </c>
-      <c r="I79" s="28">
+      <c r="J79" s="28">
         <v>269</v>
       </c>
     </row>
-    <row ht="15" r="80" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="80" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="27" t="s">
         <v>125</v>
       </c>
@@ -28905,16 +29053,19 @@
         <v>98</v>
       </c>
       <c r="G80" s="28">
+        <v>402</v>
+      </c>
+      <c r="H80" s="28">
         <v>513</v>
       </c>
-      <c r="H80" s="28">
+      <c r="I80" s="28">
         <v>773</v>
       </c>
-      <c r="I80" s="28">
+      <c r="J80" s="28">
         <v>223</v>
       </c>
     </row>
-    <row ht="15" r="81" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="81" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="27" t="s">
         <v>127</v>
       </c>
@@ -28934,16 +29085,19 @@
         <v>789</v>
       </c>
       <c r="G81" s="28">
+        <v>987</v>
+      </c>
+      <c r="H81" s="28">
         <v>456</v>
       </c>
-      <c r="H81" s="28">
+      <c r="I81" s="28">
         <v>716</v>
       </c>
-      <c r="I81" s="28">
+      <c r="J81" s="28">
         <v>546</v>
       </c>
     </row>
-    <row ht="15" r="82" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="82" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="27" t="s">
         <v>128</v>
       </c>
@@ -28963,16 +29117,19 @@
         <v>454</v>
       </c>
       <c r="G82" s="28">
+        <v>785</v>
+      </c>
+      <c r="H82" s="28">
         <v>182</v>
       </c>
-      <c r="H82" s="28">
+      <c r="I82" s="28">
         <v>442</v>
       </c>
-      <c r="I82" s="28">
+      <c r="J82" s="28">
         <v>447</v>
       </c>
     </row>
-    <row ht="15" r="83" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="83" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="27" t="s">
         <v>23</v>
       </c>
@@ -28992,16 +29149,19 @@
         <v>132</v>
       </c>
       <c r="G83" s="28">
+        <v>466</v>
+      </c>
+      <c r="H83" s="28">
         <v>502</v>
       </c>
-      <c r="H83" s="28">
+      <c r="I83" s="28">
         <v>763</v>
       </c>
-      <c r="I83" s="28">
+      <c r="J83" s="28">
         <v>455</v>
       </c>
     </row>
-    <row ht="15" r="84" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="84" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="27" t="s">
         <v>129</v>
       </c>
@@ -29021,16 +29181,19 @@
         <v>254</v>
       </c>
       <c r="G84" s="28">
+        <v>358</v>
+      </c>
+      <c r="H84" s="28">
         <v>594</v>
       </c>
-      <c r="H84" s="28">
+      <c r="I84" s="28">
         <v>854</v>
       </c>
-      <c r="I84" s="28">
+      <c r="J84" s="28">
         <v>151</v>
       </c>
     </row>
-    <row ht="15" r="85" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="85" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="27" t="s">
         <v>130</v>
       </c>
@@ -29050,16 +29213,19 @@
         <v>59</v>
       </c>
       <c r="G85" s="28">
+        <v>393</v>
+      </c>
+      <c r="H85" s="28">
         <v>564</v>
       </c>
-      <c r="H85" s="28">
+      <c r="I85" s="28">
         <v>825</v>
       </c>
-      <c r="I85" s="28">
+      <c r="J85" s="28">
         <v>382</v>
       </c>
     </row>
-    <row ht="15" r="86" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="86" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="27" t="s">
         <v>131</v>
       </c>
@@ -29079,16 +29245,19 @@
         <v>398</v>
       </c>
       <c r="G86" s="28">
+        <v>500</v>
+      </c>
+      <c r="H86" s="28">
         <v>672</v>
       </c>
-      <c r="H86" s="28">
+      <c r="I86" s="28">
         <v>932</v>
       </c>
-      <c r="I86" s="28">
+      <c r="J86" s="28">
         <v>75</v>
       </c>
     </row>
-    <row ht="15" r="87" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="87" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="27" t="s">
         <v>132</v>
       </c>
@@ -29108,16 +29277,19 @@
         <v>167</v>
       </c>
       <c r="G87" s="28">
+        <v>498</v>
+      </c>
+      <c r="H87" s="28">
         <v>341</v>
       </c>
-      <c r="H87" s="28">
+      <c r="I87" s="28">
         <v>602</v>
       </c>
-      <c r="I87" s="28">
+      <c r="J87" s="28">
         <v>376</v>
       </c>
     </row>
-    <row ht="15" r="88" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="88" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="27" t="s">
         <v>133</v>
       </c>
@@ -29137,16 +29309,19 @@
         <v>414</v>
       </c>
       <c r="G88" s="28">
+        <v>743</v>
+      </c>
+      <c r="H88" s="28">
         <v>224</v>
       </c>
-      <c r="H88" s="28">
+      <c r="I88" s="28">
         <v>484</v>
       </c>
-      <c r="I88" s="28">
+      <c r="J88" s="28">
         <v>365</v>
       </c>
     </row>
-    <row ht="15" r="89" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="89" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="27" t="s">
         <v>134</v>
       </c>
@@ -29166,16 +29341,19 @@
         <v>445</v>
       </c>
       <c r="G89" s="28">
+        <v>818</v>
+      </c>
+      <c r="H89" s="28">
         <v>292</v>
       </c>
-      <c r="H89" s="28">
+      <c r="I89" s="28">
         <v>552</v>
       </c>
-      <c r="I89" s="28">
+      <c r="J89" s="28">
         <v>322</v>
       </c>
     </row>
-    <row ht="15" r="90" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="90" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="27" t="s">
         <v>135</v>
       </c>
@@ -29195,16 +29373,19 @@
         <v>422</v>
       </c>
       <c r="G90" s="28">
+        <v>636</v>
+      </c>
+      <c r="H90" s="28">
         <v>480</v>
       </c>
-      <c r="H90" s="28">
+      <c r="I90" s="28">
         <v>739</v>
       </c>
-      <c r="I90" s="28">
+      <c r="J90" s="28">
         <v>194</v>
       </c>
     </row>
-    <row ht="15" r="91" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="91" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="27" t="s">
         <v>136</v>
       </c>
@@ -29224,16 +29405,19 @@
         <v>483</v>
       </c>
       <c r="G91" s="28">
+        <v>860</v>
+      </c>
+      <c r="H91" s="28">
         <v>288</v>
       </c>
-      <c r="H91" s="28">
+      <c r="I91" s="28">
         <v>548</v>
       </c>
-      <c r="I91" s="28">
+      <c r="J91" s="28">
         <v>365</v>
       </c>
     </row>
-    <row ht="15" r="92" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="92" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="27" t="s">
         <v>137</v>
       </c>
@@ -29253,16 +29437,19 @@
         <v>382</v>
       </c>
       <c r="G92" s="28">
+        <v>330</v>
+      </c>
+      <c r="H92" s="28">
         <v>886</v>
       </c>
-      <c r="H92" s="28">
+      <c r="I92" s="28">
         <v>1117</v>
       </c>
-      <c r="I92" s="28">
+      <c r="J92" s="28">
         <v>226</v>
       </c>
     </row>
-    <row ht="15" r="93" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="93" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="27" t="s">
         <v>138</v>
       </c>
@@ -29282,16 +29469,19 @@
         <v>630</v>
       </c>
       <c r="G93" s="28">
+        <v>961</v>
+      </c>
+      <c r="H93" s="28">
         <v>212</v>
       </c>
-      <c r="H93" s="28">
+      <c r="I93" s="28">
         <v>392</v>
       </c>
-      <c r="I93" s="28">
+      <c r="J93" s="28">
         <v>625</v>
       </c>
     </row>
-    <row ht="15" r="94" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="94" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="27" t="s">
         <v>139</v>
       </c>
@@ -29311,16 +29501,19 @@
         <v>513</v>
       </c>
       <c r="G94" s="28">
+        <v>845</v>
+      </c>
+      <c r="H94" s="28">
         <v>73</v>
       </c>
-      <c r="H94" s="28">
+      <c r="I94" s="28">
         <v>333</v>
       </c>
-      <c r="I94" s="28">
+      <c r="J94" s="28">
         <v>578</v>
       </c>
     </row>
-    <row ht="15" r="95" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="95" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="27" t="s">
         <v>140</v>
       </c>
@@ -29340,16 +29533,19 @@
         <v>694</v>
       </c>
       <c r="G95" s="28">
+        <v>1025</v>
+      </c>
+      <c r="H95" s="28">
         <v>188</v>
       </c>
-      <c r="H95" s="28">
+      <c r="I95" s="28">
         <v>72</v>
       </c>
-      <c r="I95" s="28">
+      <c r="J95" s="28">
         <v>802</v>
       </c>
     </row>
-    <row ht="15" r="96" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="96" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="27" t="s">
         <v>141</v>
       </c>
@@ -29369,16 +29565,19 @@
         <v>648</v>
       </c>
       <c r="G96" s="28">
+        <v>714</v>
+      </c>
+      <c r="H96" s="28">
         <v>870</v>
       </c>
-      <c r="H96" s="28">
+      <c r="I96" s="28">
         <v>1129</v>
       </c>
-      <c r="I96" s="28">
+      <c r="J96" s="28">
         <v>325</v>
       </c>
     </row>
-    <row ht="15" r="97" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="97" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="27" t="s">
         <v>142</v>
       </c>
@@ -29398,16 +29597,19 @@
         <v>325</v>
       </c>
       <c r="G97" s="28">
+        <v>48</v>
+      </c>
+      <c r="H97" s="28">
         <v>828</v>
       </c>
-      <c r="H97" s="28">
+      <c r="I97" s="28">
         <v>1089</v>
       </c>
-      <c r="I97" s="28">
+      <c r="J97" s="28">
         <v>483</v>
       </c>
     </row>
-    <row ht="15" r="98" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="98" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="27" t="s">
         <v>109</v>
       </c>
@@ -29427,16 +29629,19 @@
         <v>636</v>
       </c>
       <c r="G98" s="28">
+        <v>703</v>
+      </c>
+      <c r="H98" s="28">
         <v>875</v>
       </c>
-      <c r="H98" s="28">
+      <c r="I98" s="28">
         <v>1135</v>
       </c>
-      <c r="I98" s="28">
+      <c r="J98" s="28">
         <v>314</v>
       </c>
     </row>
-    <row ht="15" r="99" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="99" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="27" t="s">
         <v>110</v>
       </c>
@@ -29456,16 +29661,19 @@
         <v>455</v>
       </c>
       <c r="G99" s="28">
+        <v>557</v>
+      </c>
+      <c r="H99" s="28">
         <v>648</v>
       </c>
-      <c r="H99" s="28">
+      <c r="I99" s="28">
         <v>908</v>
       </c>
-      <c r="I99" s="28">
+      <c r="J99" s="28">
         <v>132</v>
       </c>
     </row>
-    <row ht="15" r="100" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="100" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="27" t="s">
         <v>111</v>
       </c>
@@ -29485,16 +29693,19 @@
         <v>411</v>
       </c>
       <c r="G100" s="28">
+        <v>769</v>
+      </c>
+      <c r="H100" s="28">
         <v>337</v>
       </c>
-      <c r="H100" s="28">
+      <c r="I100" s="28">
         <v>596</v>
       </c>
-      <c r="I100" s="28">
+      <c r="J100" s="28">
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="101" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="101" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="27" t="s">
         <v>112</v>
       </c>
@@ -29514,16 +29725,19 @@
         <v>694</v>
       </c>
       <c r="G101" s="28">
+        <v>709</v>
+      </c>
+      <c r="H101" s="28">
         <v>954</v>
       </c>
-      <c r="H101" s="28">
+      <c r="I101" s="28">
         <v>1214</v>
       </c>
-      <c r="I101" s="28">
+      <c r="J101" s="28">
         <v>372</v>
       </c>
     </row>
-    <row ht="15" r="102" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="102" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="27" t="s">
         <v>31</v>
       </c>
@@ -29543,16 +29757,19 @@
         <v>766</v>
       </c>
       <c r="G102" s="28">
+        <v>1098</v>
+      </c>
+      <c r="H102" s="28">
         <v>260</v>
       </c>
-      <c r="H102" s="28">
+      <c r="I102" s="28">
         <v>0</v>
       </c>
-      <c r="I102" s="28">
+      <c r="J102" s="28">
         <v>875</v>
       </c>
     </row>
-    <row ht="15" r="103" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="103" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="27" t="s">
         <v>26</v>
       </c>
@@ -29572,16 +29789,19 @@
         <v>788</v>
       </c>
       <c r="G103" s="28">
+        <v>1120</v>
+      </c>
+      <c r="H103" s="28">
         <v>400</v>
       </c>
-      <c r="H103" s="28">
+      <c r="I103" s="28">
         <v>150</v>
       </c>
-      <c r="I103" s="28">
+      <c r="J103" s="28">
         <v>926</v>
       </c>
     </row>
-    <row ht="15" r="104" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="104" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="27" t="s">
         <v>113</v>
       </c>
@@ -29601,16 +29821,19 @@
         <v>527</v>
       </c>
       <c r="G104" s="28">
+        <v>646</v>
+      </c>
+      <c r="H104" s="28">
         <v>595</v>
       </c>
-      <c r="H104" s="28">
+      <c r="I104" s="28">
         <v>855</v>
       </c>
-      <c r="I104" s="28">
+      <c r="J104" s="28">
         <v>205</v>
       </c>
     </row>
-    <row ht="15" r="105" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="105" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="27" t="s">
         <v>116</v>
       </c>
@@ -29630,16 +29853,19 @@
         <v>299</v>
       </c>
       <c r="G105" s="28">
+        <v>247</v>
+      </c>
+      <c r="H105" s="28">
         <v>802</v>
       </c>
-      <c r="H105" s="28">
+      <c r="I105" s="28">
         <v>1062</v>
       </c>
-      <c r="I105" s="28">
+      <c r="J105" s="28">
         <v>210</v>
       </c>
     </row>
-    <row ht="15" r="106" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="106" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="27" t="s">
         <v>117</v>
       </c>
@@ -29659,16 +29885,19 @@
         <v>511</v>
       </c>
       <c r="G106" s="28">
+        <v>630</v>
+      </c>
+      <c r="H106" s="28">
         <v>603</v>
       </c>
-      <c r="H106" s="28">
+      <c r="I106" s="28">
         <v>862</v>
       </c>
-      <c r="I106" s="28">
+      <c r="J106" s="28">
         <v>189</v>
       </c>
     </row>
-    <row ht="15" r="107" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="107" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="27" t="s">
         <v>118</v>
       </c>
@@ -29688,16 +29917,19 @@
         <v>421</v>
       </c>
       <c r="G107" s="28">
+        <v>731</v>
+      </c>
+      <c r="H107" s="28">
         <v>386</v>
       </c>
-      <c r="H107" s="28">
+      <c r="I107" s="28">
         <v>646</v>
       </c>
-      <c r="I107" s="28">
+      <c r="J107" s="28">
         <v>236</v>
       </c>
     </row>
-    <row ht="15" r="108" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="108" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="27" t="s">
         <v>119</v>
       </c>
@@ -29717,16 +29949,19 @@
         <v>486</v>
       </c>
       <c r="G108" s="28">
+        <v>818</v>
+      </c>
+      <c r="H108" s="28">
         <v>245</v>
       </c>
-      <c r="H108" s="28">
+      <c r="I108" s="28">
         <v>432</v>
       </c>
-      <c r="I108" s="28">
+      <c r="J108" s="28">
         <v>624</v>
       </c>
     </row>
-    <row ht="15" r="109" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="109" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="27" t="s">
         <v>120</v>
       </c>
@@ -29746,16 +29981,19 @@
         <v>353</v>
       </c>
       <c r="G109" s="28">
+        <v>302</v>
+      </c>
+      <c r="H109" s="28">
         <v>751</v>
       </c>
-      <c r="H109" s="28">
+      <c r="I109" s="28">
         <v>1010</v>
       </c>
-      <c r="I109" s="28">
+      <c r="J109" s="28">
         <v>182</v>
       </c>
     </row>
-    <row ht="15" r="110" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="110" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="27" t="s">
         <v>121</v>
       </c>
@@ -29775,16 +30013,19 @@
         <v>978</v>
       </c>
       <c r="G110" s="28">
+        <v>1310</v>
+      </c>
+      <c r="H110" s="28">
         <v>635</v>
       </c>
-      <c r="H110" s="28">
+      <c r="I110" s="28">
         <v>385</v>
       </c>
-      <c r="I110" s="28">
+      <c r="J110" s="28">
         <v>1115</v>
       </c>
     </row>
-    <row ht="15" r="111" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="111" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="27" t="s">
         <v>28</v>
       </c>
@@ -29804,16 +30045,19 @@
         <v>0</v>
       </c>
       <c r="G111" s="28">
+        <v>333</v>
+      </c>
+      <c r="H111" s="28">
         <v>506</v>
       </c>
-      <c r="H111" s="28">
+      <c r="I111" s="28">
         <v>766</v>
       </c>
-      <c r="I111" s="28">
+      <c r="J111" s="28">
         <v>322</v>
       </c>
     </row>
-    <row ht="15" r="112" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="112" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="27" t="s">
         <v>122</v>
       </c>
@@ -29833,16 +30077,19 @@
         <v>268</v>
       </c>
       <c r="G112" s="28">
+        <v>372</v>
+      </c>
+      <c r="H112" s="28">
         <v>628</v>
       </c>
-      <c r="H112" s="28">
+      <c r="I112" s="28">
         <v>889</v>
       </c>
-      <c r="I112" s="28">
+      <c r="J112" s="28">
         <v>121</v>
       </c>
     </row>
-    <row ht="15" r="113" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="113" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="27" t="s">
         <v>123</v>
       </c>
@@ -29862,16 +30109,19 @@
         <v>623</v>
       </c>
       <c r="G113" s="28">
+        <v>955</v>
+      </c>
+      <c r="H113" s="28">
         <v>289</v>
       </c>
-      <c r="H113" s="28">
+      <c r="I113" s="28">
         <v>549</v>
       </c>
-      <c r="I113" s="28">
+      <c r="J113" s="28">
         <v>431</v>
       </c>
     </row>
-    <row ht="15" r="114" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="114" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="27" t="s">
         <v>124</v>
       </c>
@@ -29891,16 +30141,19 @@
         <v>135</v>
       </c>
       <c r="G114" s="28">
+        <v>225</v>
+      </c>
+      <c r="H114" s="28">
         <v>639</v>
       </c>
-      <c r="H114" s="28">
+      <c r="I114" s="28">
         <v>899</v>
       </c>
-      <c r="I114" s="28">
+      <c r="J114" s="28">
         <v>269</v>
       </c>
     </row>
-    <row ht="15" r="115" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="115" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="27" t="s">
         <v>125</v>
       </c>
@@ -29920,16 +30173,19 @@
         <v>98</v>
       </c>
       <c r="G115" s="28">
+        <v>402</v>
+      </c>
+      <c r="H115" s="28">
         <v>513</v>
       </c>
-      <c r="H115" s="28">
+      <c r="I115" s="28">
         <v>773</v>
       </c>
-      <c r="I115" s="28">
+      <c r="J115" s="28">
         <v>223</v>
       </c>
     </row>
-    <row ht="15" r="116" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="116" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="27" t="s">
         <v>127</v>
       </c>
@@ -29949,16 +30205,19 @@
         <v>789</v>
       </c>
       <c r="G116" s="28">
+        <v>987</v>
+      </c>
+      <c r="H116" s="28">
         <v>456</v>
       </c>
-      <c r="H116" s="28">
+      <c r="I116" s="28">
         <v>716</v>
       </c>
-      <c r="I116" s="28">
+      <c r="J116" s="28">
         <v>546</v>
       </c>
     </row>
-    <row ht="15" r="117" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="117" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="27" t="s">
         <v>128</v>
       </c>
@@ -29978,16 +30237,19 @@
         <v>454</v>
       </c>
       <c r="G117" s="28">
+        <v>785</v>
+      </c>
+      <c r="H117" s="28">
         <v>182</v>
       </c>
-      <c r="H117" s="28">
+      <c r="I117" s="28">
         <v>442</v>
       </c>
-      <c r="I117" s="28">
+      <c r="J117" s="28">
         <v>447</v>
       </c>
     </row>
-    <row ht="15" r="118" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="118" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="27" t="s">
         <v>23</v>
       </c>
@@ -30007,16 +30269,19 @@
         <v>132</v>
       </c>
       <c r="G118" s="28">
+        <v>466</v>
+      </c>
+      <c r="H118" s="28">
         <v>502</v>
       </c>
-      <c r="H118" s="28">
+      <c r="I118" s="28">
         <v>763</v>
       </c>
-      <c r="I118" s="28">
+      <c r="J118" s="28">
         <v>455</v>
       </c>
     </row>
-    <row ht="15" r="119" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="119" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="27" t="s">
         <v>129</v>
       </c>
@@ -30036,16 +30301,19 @@
         <v>254</v>
       </c>
       <c r="G119" s="28">
+        <v>358</v>
+      </c>
+      <c r="H119" s="28">
         <v>594</v>
       </c>
-      <c r="H119" s="28">
+      <c r="I119" s="28">
         <v>854</v>
       </c>
-      <c r="I119" s="28">
+      <c r="J119" s="28">
         <v>151</v>
       </c>
     </row>
-    <row ht="15" r="120" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="120" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="27" t="s">
         <v>130</v>
       </c>
@@ -30065,16 +30333,19 @@
         <v>59</v>
       </c>
       <c r="G120" s="28">
+        <v>393</v>
+      </c>
+      <c r="H120" s="28">
         <v>564</v>
       </c>
-      <c r="H120" s="28">
+      <c r="I120" s="28">
         <v>825</v>
       </c>
-      <c r="I120" s="28">
+      <c r="J120" s="28">
         <v>382</v>
       </c>
     </row>
-    <row ht="15" r="121" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="121" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="27" t="s">
         <v>131</v>
       </c>
@@ -30094,16 +30365,19 @@
         <v>398</v>
       </c>
       <c r="G121" s="28">
+        <v>500</v>
+      </c>
+      <c r="H121" s="28">
         <v>672</v>
       </c>
-      <c r="H121" s="28">
+      <c r="I121" s="28">
         <v>932</v>
       </c>
-      <c r="I121" s="28">
+      <c r="J121" s="28">
         <v>75</v>
       </c>
     </row>
-    <row ht="15" r="122" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="122" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="27" t="s">
         <v>132</v>
       </c>
@@ -30123,16 +30397,19 @@
         <v>167</v>
       </c>
       <c r="G122" s="28">
+        <v>498</v>
+      </c>
+      <c r="H122" s="28">
         <v>341</v>
       </c>
-      <c r="H122" s="28">
+      <c r="I122" s="28">
         <v>602</v>
       </c>
-      <c r="I122" s="28">
+      <c r="J122" s="28">
         <v>376</v>
       </c>
     </row>
-    <row ht="15" r="123" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="123" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="27" t="s">
         <v>133</v>
       </c>
@@ -30152,16 +30429,19 @@
         <v>414</v>
       </c>
       <c r="G123" s="28">
+        <v>743</v>
+      </c>
+      <c r="H123" s="28">
         <v>224</v>
       </c>
-      <c r="H123" s="28">
+      <c r="I123" s="28">
         <v>484</v>
       </c>
-      <c r="I123" s="28">
+      <c r="J123" s="28">
         <v>365</v>
       </c>
     </row>
-    <row ht="15" r="124" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="124" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="27" t="s">
         <v>134</v>
       </c>
@@ -30181,16 +30461,19 @@
         <v>445</v>
       </c>
       <c r="G124" s="28">
+        <v>818</v>
+      </c>
+      <c r="H124" s="28">
         <v>292</v>
       </c>
-      <c r="H124" s="28">
+      <c r="I124" s="28">
         <v>552</v>
       </c>
-      <c r="I124" s="28">
+      <c r="J124" s="28">
         <v>322</v>
       </c>
     </row>
-    <row ht="15" r="125" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="125" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="27" t="s">
         <v>135</v>
       </c>
@@ -30210,16 +30493,19 @@
         <v>422</v>
       </c>
       <c r="G125" s="28">
+        <v>636</v>
+      </c>
+      <c r="H125" s="28">
         <v>480</v>
       </c>
-      <c r="H125" s="28">
+      <c r="I125" s="28">
         <v>739</v>
       </c>
-      <c r="I125" s="28">
+      <c r="J125" s="28">
         <v>194</v>
       </c>
     </row>
-    <row ht="15" r="126" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="126" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="27" t="s">
         <v>136</v>
       </c>
@@ -30239,16 +30525,19 @@
         <v>483</v>
       </c>
       <c r="G126" s="28">
+        <v>860</v>
+      </c>
+      <c r="H126" s="28">
         <v>288</v>
       </c>
-      <c r="H126" s="28">
+      <c r="I126" s="28">
         <v>548</v>
       </c>
-      <c r="I126" s="28">
+      <c r="J126" s="28">
         <v>365</v>
       </c>
     </row>
-    <row ht="15" r="127" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="127" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="27" t="s">
         <v>137</v>
       </c>
@@ -30268,16 +30557,19 @@
         <v>382</v>
       </c>
       <c r="G127" s="28">
+        <v>330</v>
+      </c>
+      <c r="H127" s="28">
         <v>886</v>
       </c>
-      <c r="H127" s="28">
+      <c r="I127" s="28">
         <v>1117</v>
       </c>
-      <c r="I127" s="28">
+      <c r="J127" s="28">
         <v>226</v>
       </c>
     </row>
-    <row ht="15" r="128" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="128" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="27" t="s">
         <v>138</v>
       </c>
@@ -30297,16 +30589,19 @@
         <v>630</v>
       </c>
       <c r="G128" s="28">
+        <v>961</v>
+      </c>
+      <c r="H128" s="28">
         <v>212</v>
       </c>
-      <c r="H128" s="28">
+      <c r="I128" s="28">
         <v>392</v>
       </c>
-      <c r="I128" s="28">
+      <c r="J128" s="28">
         <v>625</v>
       </c>
     </row>
-    <row ht="15" r="129" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="129" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="27" t="s">
         <v>139</v>
       </c>
@@ -30326,16 +30621,19 @@
         <v>513</v>
       </c>
       <c r="G129" s="28">
+        <v>845</v>
+      </c>
+      <c r="H129" s="28">
         <v>73</v>
       </c>
-      <c r="H129" s="28">
+      <c r="I129" s="28">
         <v>333</v>
       </c>
-      <c r="I129" s="28">
+      <c r="J129" s="28">
         <v>578</v>
       </c>
     </row>
-    <row ht="15" r="130" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="130" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="27" t="s">
         <v>140</v>
       </c>
@@ -30355,16 +30653,19 @@
         <v>694</v>
       </c>
       <c r="G130" s="28">
+        <v>1025</v>
+      </c>
+      <c r="H130" s="28">
         <v>188</v>
       </c>
-      <c r="H130" s="28">
+      <c r="I130" s="28">
         <v>72</v>
       </c>
-      <c r="I130" s="28">
+      <c r="J130" s="28">
         <v>802</v>
       </c>
     </row>
-    <row ht="15" r="131" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="131" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="27" t="s">
         <v>142</v>
       </c>
@@ -30384,16 +30685,19 @@
         <v>325</v>
       </c>
       <c r="G131" s="28">
+        <v>48</v>
+      </c>
+      <c r="H131" s="28">
         <v>828</v>
       </c>
-      <c r="H131" s="28">
+      <c r="I131" s="28">
         <v>1089</v>
       </c>
-      <c r="I131" s="28">
+      <c r="J131" s="28">
         <v>483</v>
       </c>
     </row>
-    <row ht="15" r="132" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="132" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="27" t="s">
         <v>143</v>
       </c>
@@ -30413,16 +30717,19 @@
         <v>684</v>
       </c>
       <c r="G132" s="28">
+        <v>1015</v>
+      </c>
+      <c r="H132" s="28">
         <v>350</v>
       </c>
-      <c r="H132" s="28">
+      <c r="I132" s="28">
         <v>610</v>
       </c>
-      <c r="I132" s="28">
+      <c r="J132" s="28">
         <v>649</v>
       </c>
     </row>
-    <row ht="15" r="133" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="133" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="27" t="s">
         <v>144</v>
       </c>
@@ -30442,16 +30749,19 @@
         <v>281</v>
       </c>
       <c r="G133" s="28">
+        <v>363</v>
+      </c>
+      <c r="H133" s="28">
         <v>785</v>
       </c>
-      <c r="H133" s="28">
+      <c r="I133" s="28">
         <v>1045</v>
       </c>
-      <c r="I133" s="28">
+      <c r="J133" s="28">
         <v>203</v>
       </c>
     </row>
-    <row ht="15" r="134" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="134" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="27" t="s">
         <v>145</v>
       </c>
@@ -30471,16 +30781,19 @@
         <v>88</v>
       </c>
       <c r="G134" s="28">
+        <v>422</v>
+      </c>
+      <c r="H134" s="28">
         <v>545</v>
       </c>
-      <c r="H134" s="28">
+      <c r="I134" s="28">
         <v>805</v>
       </c>
-      <c r="I134" s="28">
+      <c r="J134" s="28">
         <v>411</v>
       </c>
     </row>
-    <row ht="15" r="135" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="135" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="27" t="s">
         <v>146</v>
       </c>
@@ -30500,16 +30813,19 @@
         <v>121</v>
       </c>
       <c r="G135" s="28">
+        <v>453</v>
+      </c>
+      <c r="H135" s="28">
         <v>387</v>
       </c>
-      <c r="H135" s="28">
+      <c r="I135" s="28">
         <v>647</v>
       </c>
-      <c r="I135" s="28">
+      <c r="J135" s="28">
         <v>346</v>
       </c>
     </row>
-    <row ht="15" r="136" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="136" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="27" t="s">
         <v>147</v>
       </c>
@@ -30529,16 +30845,19 @@
         <v>850</v>
       </c>
       <c r="G136" s="28">
+        <v>1182</v>
+      </c>
+      <c r="H136" s="28">
         <v>452</v>
       </c>
-      <c r="H136" s="28">
+      <c r="I136" s="28">
         <v>202</v>
       </c>
-      <c r="I136" s="28">
+      <c r="J136" s="28">
         <v>988</v>
       </c>
     </row>
-    <row ht="15" r="137" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="137" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="27" t="s">
         <v>148</v>
       </c>
@@ -30558,16 +30877,19 @@
         <v>416</v>
       </c>
       <c r="G137" s="28">
+        <v>81</v>
+      </c>
+      <c r="H137" s="28">
         <v>920</v>
       </c>
-      <c r="H137" s="28">
+      <c r="I137" s="28">
         <v>1180</v>
       </c>
-      <c r="I137" s="28">
+      <c r="J137" s="28">
         <v>540</v>
       </c>
     </row>
-    <row ht="15" r="138" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="138" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="27" t="s">
         <v>149</v>
       </c>
@@ -30587,16 +30909,19 @@
         <v>479</v>
       </c>
       <c r="G138" s="28">
+        <v>810</v>
+      </c>
+      <c r="H138" s="28">
         <v>140</v>
       </c>
-      <c r="H138" s="28">
+      <c r="I138" s="28">
         <v>399</v>
       </c>
-      <c r="I138" s="28">
+      <c r="J138" s="28">
         <v>473</v>
       </c>
     </row>
-    <row ht="15" r="139" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="139" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="27" t="s">
         <v>150</v>
       </c>
@@ -30616,16 +30941,19 @@
         <v>479</v>
       </c>
       <c r="G139" s="28">
+        <v>810</v>
+      </c>
+      <c r="H139" s="28">
         <v>140</v>
       </c>
-      <c r="H139" s="28">
+      <c r="I139" s="28">
         <v>399</v>
       </c>
-      <c r="I139" s="28">
+      <c r="J139" s="28">
         <v>473</v>
       </c>
     </row>
-    <row ht="15" r="140" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="140" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="27" t="s">
         <v>151</v>
       </c>
@@ -30645,16 +30973,19 @@
         <v>479</v>
       </c>
       <c r="G140" s="28">
+        <v>810</v>
+      </c>
+      <c r="H140" s="28">
         <v>140</v>
       </c>
-      <c r="H140" s="28">
+      <c r="I140" s="28">
         <v>399</v>
       </c>
-      <c r="I140" s="28">
+      <c r="J140" s="28">
         <v>473</v>
       </c>
     </row>
-    <row ht="15" r="141" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="141" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="27" t="s">
         <v>152</v>
       </c>
@@ -30674,16 +31005,19 @@
         <v>479</v>
       </c>
       <c r="G141" s="28">
+        <v>810</v>
+      </c>
+      <c r="H141" s="28">
         <v>140</v>
       </c>
-      <c r="H141" s="28">
+      <c r="I141" s="28">
         <v>399</v>
       </c>
-      <c r="I141" s="28">
+      <c r="J141" s="28">
         <v>473</v>
       </c>
     </row>
-    <row ht="15" r="142" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="142" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="27" t="s">
         <v>153</v>
       </c>
@@ -30703,16 +31037,19 @@
         <v>479</v>
       </c>
       <c r="G142" s="28">
+        <v>810</v>
+      </c>
+      <c r="H142" s="28">
         <v>140</v>
       </c>
-      <c r="H142" s="28">
+      <c r="I142" s="28">
         <v>399</v>
       </c>
-      <c r="I142" s="28">
+      <c r="J142" s="28">
         <v>473</v>
       </c>
     </row>
-    <row ht="15" r="143" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="143" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="27" t="s">
         <v>154</v>
       </c>
@@ -30732,16 +31069,19 @@
         <v>479</v>
       </c>
       <c r="G143" s="28">
+        <v>810</v>
+      </c>
+      <c r="H143" s="28">
         <v>140</v>
       </c>
-      <c r="H143" s="28">
+      <c r="I143" s="28">
         <v>399</v>
       </c>
-      <c r="I143" s="28">
+      <c r="J143" s="28">
         <v>473</v>
       </c>
     </row>
-    <row ht="15" r="144" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="144" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="27" t="s">
         <v>155</v>
       </c>
@@ -30761,16 +31101,19 @@
         <v>479</v>
       </c>
       <c r="G144" s="28">
+        <v>810</v>
+      </c>
+      <c r="H144" s="28">
         <v>140</v>
       </c>
-      <c r="H144" s="28">
+      <c r="I144" s="28">
         <v>399</v>
       </c>
-      <c r="I144" s="28">
+      <c r="J144" s="28">
         <v>473</v>
       </c>
     </row>
-    <row ht="15" r="145" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="145" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="27" t="s">
         <v>156</v>
       </c>
@@ -30790,16 +31133,19 @@
         <v>766</v>
       </c>
       <c r="G145" s="28">
+        <v>1098</v>
+      </c>
+      <c r="H145" s="28">
         <v>260</v>
       </c>
-      <c r="H145" s="28">
+      <c r="I145" s="28">
         <v>0</v>
       </c>
-      <c r="I145" s="28">
+      <c r="J145" s="28">
         <v>875</v>
       </c>
     </row>
-    <row ht="15" r="146" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="146" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="27" t="s">
         <v>157</v>
       </c>
@@ -30819,16 +31165,19 @@
         <v>766</v>
       </c>
       <c r="G146" s="28">
+        <v>1098</v>
+      </c>
+      <c r="H146" s="28">
         <v>260</v>
       </c>
-      <c r="H146" s="28">
+      <c r="I146" s="28">
         <v>0</v>
       </c>
-      <c r="I146" s="28">
+      <c r="J146" s="28">
         <v>875</v>
       </c>
     </row>
-    <row ht="15" r="147" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="147" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="27" t="s">
         <v>158</v>
       </c>
@@ -30848,16 +31197,19 @@
         <v>766</v>
       </c>
       <c r="G147" s="28">
+        <v>1098</v>
+      </c>
+      <c r="H147" s="28">
         <v>260</v>
       </c>
-      <c r="H147" s="28">
+      <c r="I147" s="28">
         <v>0</v>
       </c>
-      <c r="I147" s="28">
+      <c r="J147" s="28">
         <v>875</v>
       </c>
     </row>
-    <row ht="15" r="148" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="148" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="27" t="s">
         <v>159</v>
       </c>
@@ -30877,16 +31229,19 @@
         <v>766</v>
       </c>
       <c r="G148" s="28">
+        <v>1098</v>
+      </c>
+      <c r="H148" s="28">
         <v>260</v>
       </c>
-      <c r="H148" s="28">
+      <c r="I148" s="28">
         <v>0</v>
       </c>
-      <c r="I148" s="28">
+      <c r="J148" s="28">
         <v>875</v>
       </c>
     </row>
-    <row ht="15" r="149" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="149" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="27" t="s">
         <v>160</v>
       </c>
@@ -30906,16 +31261,19 @@
         <v>505</v>
       </c>
       <c r="G149" s="28">
+        <v>837</v>
+      </c>
+      <c r="H149" s="28">
         <v>0</v>
       </c>
-      <c r="H149" s="28">
+      <c r="I149" s="28">
         <v>260</v>
       </c>
-      <c r="I149" s="28">
+      <c r="J149" s="28">
         <v>612</v>
       </c>
     </row>
-    <row ht="15" r="150" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="150" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="27" t="s">
         <v>161</v>
       </c>
@@ -30935,16 +31293,19 @@
         <v>505</v>
       </c>
       <c r="G150" s="28">
+        <v>837</v>
+      </c>
+      <c r="H150" s="28">
         <v>0</v>
       </c>
-      <c r="H150" s="28">
+      <c r="I150" s="28">
         <v>260</v>
       </c>
-      <c r="I150" s="28">
+      <c r="J150" s="28">
         <v>612</v>
       </c>
     </row>
-    <row ht="15" r="151" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="151" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="27" t="s">
         <v>162</v>
       </c>
@@ -30964,16 +31325,19 @@
         <v>505</v>
       </c>
       <c r="G151" s="28">
+        <v>837</v>
+      </c>
+      <c r="H151" s="28">
         <v>0</v>
       </c>
-      <c r="H151" s="28">
+      <c r="I151" s="28">
         <v>260</v>
       </c>
-      <c r="I151" s="28">
+      <c r="J151" s="28">
         <v>612</v>
       </c>
     </row>
-    <row ht="15" r="152" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="152" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="27" t="s">
         <v>163</v>
       </c>
@@ -30993,16 +31357,19 @@
         <v>788</v>
       </c>
       <c r="G152" s="28">
+        <v>1120</v>
+      </c>
+      <c r="H152" s="28">
         <v>400</v>
       </c>
-      <c r="H152" s="28">
+      <c r="I152" s="28">
         <v>150</v>
       </c>
-      <c r="I152" s="28">
+      <c r="J152" s="28">
         <v>926</v>
       </c>
     </row>
-    <row ht="15" r="153" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="153" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="27" t="s">
         <v>164</v>
       </c>
@@ -31022,16 +31389,19 @@
         <v>788</v>
       </c>
       <c r="G153" s="28">
+        <v>1120</v>
+      </c>
+      <c r="H153" s="28">
         <v>400</v>
       </c>
-      <c r="H153" s="28">
+      <c r="I153" s="28">
         <v>150</v>
       </c>
-      <c r="I153" s="28">
+      <c r="J153" s="28">
         <v>926</v>
       </c>
     </row>
-    <row ht="15" r="154" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="154" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="27" t="s">
         <v>165</v>
       </c>
@@ -31051,16 +31421,19 @@
         <v>788</v>
       </c>
       <c r="G154" s="28">
+        <v>1120</v>
+      </c>
+      <c r="H154" s="28">
         <v>400</v>
       </c>
-      <c r="H154" s="28">
+      <c r="I154" s="28">
         <v>150</v>
       </c>
-      <c r="I154" s="28">
+      <c r="J154" s="28">
         <v>926</v>
       </c>
     </row>
-    <row ht="15" r="155" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="155" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="27" t="s">
         <v>166</v>
       </c>
@@ -31080,16 +31453,19 @@
         <v>788</v>
       </c>
       <c r="G155" s="28">
+        <v>1120</v>
+      </c>
+      <c r="H155" s="28">
         <v>400</v>
       </c>
-      <c r="H155" s="28">
+      <c r="I155" s="28">
         <v>150</v>
       </c>
-      <c r="I155" s="28">
+      <c r="J155" s="28">
         <v>926</v>
       </c>
     </row>
-    <row ht="15" r="156" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="156" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="27" t="s">
         <v>167</v>
       </c>
@@ -31109,16 +31485,19 @@
         <v>539</v>
       </c>
       <c r="G156" s="28">
+        <v>659</v>
+      </c>
+      <c r="H156" s="28">
         <v>616</v>
       </c>
-      <c r="H156" s="28">
+      <c r="I156" s="28">
         <v>876</v>
       </c>
-      <c r="I156" s="28">
+      <c r="J156" s="28">
         <v>217</v>
       </c>
     </row>
-    <row ht="15" r="157" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="157" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="27" t="s">
         <v>168</v>
       </c>
@@ -31138,16 +31517,19 @@
         <v>539</v>
       </c>
       <c r="G157" s="28">
+        <v>659</v>
+      </c>
+      <c r="H157" s="28">
         <v>616</v>
       </c>
-      <c r="H157" s="28">
+      <c r="I157" s="28">
         <v>876</v>
       </c>
-      <c r="I157" s="28">
+      <c r="J157" s="28">
         <v>217</v>
       </c>
     </row>
-    <row ht="15" r="158" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row customHeight="1" ht="13.5" r="158" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="27" t="s">
         <v>169</v>
       </c>
@@ -31167,279 +31549,309 @@
         <v>539</v>
       </c>
       <c r="G158" s="28">
+        <v>659</v>
+      </c>
+      <c r="H158" s="28">
         <v>616</v>
       </c>
-      <c r="H158" s="28">
+      <c r="I158" s="28">
         <v>876</v>
       </c>
-      <c r="I158" s="28">
+      <c r="J158" s="28">
         <v>217</v>
       </c>
     </row>
-    <row ht="15" r="159" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="159" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="27" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B159" s="28">
-        <v>707</v>
+        <v>546</v>
       </c>
       <c r="C159" s="28">
-        <v>289</v>
+        <v>550</v>
       </c>
       <c r="D159" s="28">
-        <v>1246</v>
+        <v>863</v>
       </c>
       <c r="E159" s="28">
-        <v>732</v>
+        <v>203</v>
       </c>
       <c r="F159" s="28">
-        <v>599</v>
+        <v>69</v>
       </c>
       <c r="G159" s="28">
-        <v>846</v>
+        <v>263</v>
       </c>
       <c r="H159" s="28">
-        <v>1105</v>
+        <v>572</v>
       </c>
       <c r="I159" s="28">
-        <v>248</v>
-      </c>
-    </row>
-    <row ht="15" r="160" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>833</v>
+      </c>
+      <c r="J159" s="28">
+        <v>329</v>
+      </c>
+    </row>
+    <row ht="15" r="160" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="27" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B160" s="28">
-        <v>707</v>
+        <v>546</v>
       </c>
       <c r="C160" s="28">
-        <v>289</v>
+        <v>550</v>
       </c>
       <c r="D160" s="28">
-        <v>1246</v>
+        <v>863</v>
       </c>
       <c r="E160" s="28">
-        <v>732</v>
+        <v>203</v>
       </c>
       <c r="F160" s="28">
-        <v>599</v>
+        <v>69</v>
       </c>
       <c r="G160" s="28">
-        <v>846</v>
+        <v>263</v>
       </c>
       <c r="H160" s="28">
-        <v>1105</v>
+        <v>572</v>
       </c>
       <c r="I160" s="28">
-        <v>248</v>
-      </c>
-    </row>
-    <row ht="15" r="161" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>833</v>
+      </c>
+      <c r="J160" s="28">
+        <v>329</v>
+      </c>
+    </row>
+    <row ht="15" r="161" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="27" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B161" s="28">
-        <v>707</v>
+        <v>479</v>
       </c>
       <c r="C161" s="28">
-        <v>289</v>
+        <v>558</v>
       </c>
       <c r="D161" s="28">
-        <v>1246</v>
+        <v>797</v>
       </c>
       <c r="E161" s="28">
-        <v>732</v>
+        <v>133</v>
       </c>
       <c r="F161" s="28">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="G161" s="28">
-        <v>846</v>
+        <v>333</v>
       </c>
       <c r="H161" s="28">
-        <v>1105</v>
+        <v>506</v>
       </c>
       <c r="I161" s="28">
-        <v>248</v>
-      </c>
-    </row>
-    <row ht="15" r="162" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>766</v>
+      </c>
+      <c r="J161" s="28">
+        <v>322</v>
+      </c>
+    </row>
+    <row ht="15" r="162" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="27" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B162" s="28">
-        <v>707</v>
+        <v>479</v>
       </c>
       <c r="C162" s="28">
-        <v>289</v>
+        <v>558</v>
       </c>
       <c r="D162" s="28">
-        <v>1246</v>
+        <v>797</v>
       </c>
       <c r="E162" s="28">
-        <v>732</v>
+        <v>133</v>
       </c>
       <c r="F162" s="28">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="G162" s="28">
-        <v>846</v>
+        <v>333</v>
       </c>
       <c r="H162" s="28">
-        <v>1105</v>
+        <v>506</v>
       </c>
       <c r="I162" s="28">
-        <v>248</v>
-      </c>
-    </row>
-    <row ht="15" r="163" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>766</v>
+      </c>
+      <c r="J162" s="28">
+        <v>322</v>
+      </c>
+    </row>
+    <row ht="15" r="163" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="27" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B163" s="28">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="C163" s="28">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D163" s="28">
-        <v>863</v>
+        <v>797</v>
       </c>
       <c r="E163" s="28">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="F163" s="28">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G163" s="28">
-        <v>572</v>
+        <v>333</v>
       </c>
       <c r="H163" s="28">
-        <v>833</v>
+        <v>506</v>
       </c>
       <c r="I163" s="28">
-        <v>329</v>
-      </c>
-    </row>
-    <row ht="15" r="164" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>766</v>
+      </c>
+      <c r="J163" s="28">
+        <v>322</v>
+      </c>
+    </row>
+    <row ht="15" r="164" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B164" s="28">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="C164" s="28">
-        <v>550</v>
+        <v>715</v>
       </c>
       <c r="D164" s="28">
-        <v>863</v>
+        <v>793</v>
       </c>
       <c r="E164" s="28">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F164" s="28">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="G164" s="28">
-        <v>572</v>
+        <v>466</v>
       </c>
       <c r="H164" s="28">
-        <v>833</v>
+        <v>502</v>
       </c>
       <c r="I164" s="28">
-        <v>329</v>
-      </c>
-    </row>
-    <row ht="15" r="165" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>763</v>
+      </c>
+      <c r="J164" s="28">
+        <v>455</v>
+      </c>
+    </row>
+    <row ht="15" r="165" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B165" s="28">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C165" s="28">
-        <v>558</v>
+        <v>715</v>
       </c>
       <c r="D165" s="28">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E165" s="28">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F165" s="28">
+        <v>132</v>
+      </c>
+      <c r="G165" s="28">
+        <v>466</v>
+      </c>
+      <c r="H165" s="28">
+        <v>502</v>
+      </c>
+      <c r="I165" s="28">
+        <v>763</v>
+      </c>
+      <c r="J165" s="28">
+        <v>455</v>
+      </c>
+    </row>
+    <row ht="15" r="166" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B166" s="28">
+        <v>476</v>
+      </c>
+      <c r="C166" s="28">
+        <v>715</v>
+      </c>
+      <c r="D166" s="28">
+        <v>793</v>
+      </c>
+      <c r="E166" s="28">
         <v>0</v>
       </c>
-      <c r="G165" s="28">
-        <v>506</v>
-      </c>
-      <c r="H165" s="28">
-        <v>766</v>
-      </c>
-      <c r="I165" s="28">
-        <v>322</v>
-      </c>
-    </row>
-    <row ht="15" r="166" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B166" s="28">
-        <v>479</v>
-      </c>
-      <c r="C166" s="28">
-        <v>558</v>
-      </c>
-      <c r="D166" s="28">
-        <v>797</v>
-      </c>
-      <c r="E166" s="28">
-        <v>133</v>
-      </c>
       <c r="F166" s="28">
+        <v>132</v>
+      </c>
+      <c r="G166" s="28">
+        <v>466</v>
+      </c>
+      <c r="H166" s="28">
+        <v>502</v>
+      </c>
+      <c r="I166" s="28">
+        <v>763</v>
+      </c>
+      <c r="J166" s="28">
+        <v>455</v>
+      </c>
+    </row>
+    <row ht="15" r="167" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B167" s="28">
+        <v>476</v>
+      </c>
+      <c r="C167" s="28">
+        <v>715</v>
+      </c>
+      <c r="D167" s="28">
+        <v>793</v>
+      </c>
+      <c r="E167" s="28">
         <v>0</v>
       </c>
-      <c r="G166" s="28">
-        <v>506</v>
-      </c>
-      <c r="H166" s="28">
-        <v>766</v>
-      </c>
-      <c r="I166" s="28">
-        <v>322</v>
-      </c>
-    </row>
-    <row ht="15" r="167" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B167" s="28">
-        <v>479</v>
-      </c>
-      <c r="C167" s="28">
-        <v>558</v>
-      </c>
-      <c r="D167" s="28">
-        <v>797</v>
-      </c>
-      <c r="E167" s="28">
-        <v>133</v>
-      </c>
       <c r="F167" s="28">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="G167" s="28">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="H167" s="28">
-        <v>766</v>
+        <v>502</v>
       </c>
       <c r="I167" s="28">
-        <v>322</v>
-      </c>
-    </row>
-    <row ht="15" r="168" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>763</v>
+      </c>
+      <c r="J167" s="28">
+        <v>455</v>
+      </c>
+    </row>
+    <row ht="15" r="168" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B168" s="28">
         <v>476</v>
@@ -31457,105 +31869,117 @@
         <v>132</v>
       </c>
       <c r="G168" s="28">
+        <v>466</v>
+      </c>
+      <c r="H168" s="28">
         <v>502</v>
       </c>
-      <c r="H168" s="28">
+      <c r="I168" s="28">
         <v>763</v>
       </c>
-      <c r="I168" s="28">
+      <c r="J168" s="28">
         <v>455</v>
       </c>
     </row>
-    <row ht="15" r="169" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="169" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B169" s="28">
-        <v>476</v>
+        <v>811</v>
       </c>
       <c r="C169" s="28">
-        <v>715</v>
+        <v>658</v>
       </c>
       <c r="D169" s="28">
-        <v>793</v>
+        <v>1128</v>
       </c>
       <c r="E169" s="28">
+        <v>468</v>
+      </c>
+      <c r="F169" s="28">
+        <v>334</v>
+      </c>
+      <c r="G169" s="28">
         <v>0</v>
       </c>
-      <c r="F169" s="28">
-        <v>132</v>
-      </c>
-      <c r="G169" s="28">
-        <v>502</v>
-      </c>
       <c r="H169" s="28">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="I169" s="28">
-        <v>455</v>
-      </c>
-    </row>
-    <row ht="15" r="170" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1098</v>
+      </c>
+      <c r="J169" s="28">
+        <v>457</v>
+      </c>
+    </row>
+    <row ht="15" r="170" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="27" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B170" s="28">
-        <v>476</v>
+        <v>811</v>
       </c>
       <c r="C170" s="28">
-        <v>715</v>
+        <v>658</v>
       </c>
       <c r="D170" s="28">
-        <v>793</v>
+        <v>1128</v>
       </c>
       <c r="E170" s="28">
+        <v>468</v>
+      </c>
+      <c r="F170" s="28">
+        <v>334</v>
+      </c>
+      <c r="G170" s="28">
         <v>0</v>
       </c>
-      <c r="F170" s="28">
-        <v>132</v>
-      </c>
-      <c r="G170" s="28">
-        <v>502</v>
-      </c>
       <c r="H170" s="28">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="I170" s="28">
-        <v>455</v>
-      </c>
-    </row>
-    <row ht="15" r="171" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1098</v>
+      </c>
+      <c r="J170" s="28">
+        <v>457</v>
+      </c>
+    </row>
+    <row ht="15" r="171" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B171" s="28">
-        <v>476</v>
+        <v>811</v>
       </c>
       <c r="C171" s="28">
-        <v>715</v>
+        <v>658</v>
       </c>
       <c r="D171" s="28">
-        <v>793</v>
+        <v>1128</v>
       </c>
       <c r="E171" s="28">
+        <v>468</v>
+      </c>
+      <c r="F171" s="28">
+        <v>334</v>
+      </c>
+      <c r="G171" s="28">
         <v>0</v>
       </c>
-      <c r="F171" s="28">
-        <v>132</v>
-      </c>
-      <c r="G171" s="28">
-        <v>502</v>
-      </c>
       <c r="H171" s="28">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="I171" s="28">
-        <v>455</v>
-      </c>
-    </row>
-    <row ht="15" r="172" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1098</v>
+      </c>
+      <c r="J171" s="28">
+        <v>457</v>
+      </c>
+    </row>
+    <row ht="15" r="172" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B172" s="28">
         <v>476</v>
@@ -31573,41 +31997,15 @@
         <v>132</v>
       </c>
       <c r="G172" s="28">
+        <v>466</v>
+      </c>
+      <c r="H172" s="28">
         <v>502</v>
       </c>
-      <c r="H172" s="28">
+      <c r="I172" s="28">
         <v>763</v>
       </c>
-      <c r="I172" s="28">
-        <v>455</v>
-      </c>
-    </row>
-    <row ht="15" r="173" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B173" s="28">
-        <v>476</v>
-      </c>
-      <c r="C173" s="28">
-        <v>715</v>
-      </c>
-      <c r="D173" s="28">
-        <v>793</v>
-      </c>
-      <c r="E173" s="28">
-        <v>0</v>
-      </c>
-      <c r="F173" s="28">
-        <v>132</v>
-      </c>
-      <c r="G173" s="28">
-        <v>502</v>
-      </c>
-      <c r="H173" s="28">
-        <v>763</v>
-      </c>
-      <c r="I173" s="28">
+      <c r="J172" s="28">
         <v>455</v>
       </c>
     </row>
@@ -31619,10 +32017,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31693,36 +32091,47 @@
         <v>132</v>
       </c>
     </row>
-    <row ht="22.5" r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="28" r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="33">
+        <v>810</v>
+      </c>
+      <c r="C7" s="34">
+        <v>466</v>
+      </c>
+    </row>
+    <row ht="22.5" r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B8" s="33">
         <v>140</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C8" s="34">
         <v>502</v>
       </c>
     </row>
-    <row ht="16.5" r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="s">
+    <row ht="16.5" r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B9" s="33">
         <v>399</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C9" s="34">
         <v>763</v>
       </c>
     </row>
-    <row ht="32" r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="s">
+    <row ht="32" r="10" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B10" s="33">
         <v>473</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C10" s="34">
         <v>455</v>
       </c>
     </row>
@@ -31736,7 +32145,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
